--- a/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
+++ b/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
@@ -28,11 +28,11 @@
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">Documents!$A$1:$C$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'Analysis Displays'!$A$1:$D$1</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'Analysis Results'!$A$1:$N$1</definedName>
-    <definedName hidden="1" localSheetId="7" name="Z_0C7D5D17_4630_4B52_9B96_F7BC436122E5_.wvu.FilterData">Methods!$A$1:$I$500</definedName>
+    <definedName hidden="1" localSheetId="7" name="Z_874AEB17_E353_4862_B794_4EF5AE8B80D2_.wvu.FilterData">Methods!$A$1:$I$500</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0C7D5D17-4630-4B52-9B96-F7BC436122E5}" name="Joel_filter"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{874AEB17-E353-4862-B794-4EF5AE8B80D2}" name="Joel_filter"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2293,9 +2293,6 @@
     <t>ADNPIX.ABLFL</t>
   </si>
   <si>
-    <t>Analysis Record Flag 01</t>
-  </si>
-  <si>
     <t>ADNPIX.ANL01FL</t>
   </si>
   <si>
@@ -2764,178 +2761,181 @@
     <t>SRCDOM</t>
   </si>
   <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCDOM</t>
+  </si>
+  <si>
+    <t>SRCVAR</t>
+  </si>
+  <si>
+    <t>Source Variable</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCVAR</t>
+  </si>
+  <si>
+    <t>SRCSEQ</t>
+  </si>
+  <si>
+    <t>Source Sequence Number</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCSEQ</t>
+  </si>
+  <si>
+    <t>ADTTE.SAFFL</t>
+  </si>
+  <si>
+    <t>ADVS.STUDYID</t>
+  </si>
+  <si>
+    <t>ADVS.SITEID</t>
+  </si>
+  <si>
+    <t>ADVS.USUBJID</t>
+  </si>
+  <si>
+    <t>ADVS.AGE</t>
+  </si>
+  <si>
+    <t>ADVS.AGEGR1</t>
+  </si>
+  <si>
+    <t>ADVS.AGEGR1N</t>
+  </si>
+  <si>
+    <t>ADVS.RACE</t>
+  </si>
+  <si>
+    <t>ADVS.RACEN</t>
+  </si>
+  <si>
+    <t>ADVS.SEX</t>
+  </si>
+  <si>
+    <t>ADVS.SAFFL</t>
+  </si>
+  <si>
+    <t>ADVS.TRTSDT</t>
+  </si>
+  <si>
+    <t>ADVS.TRTEDT</t>
+  </si>
+  <si>
+    <t>ADVS.TRTP</t>
+  </si>
+  <si>
+    <t>ADVS.TRTPN</t>
+  </si>
+  <si>
+    <t>ADVS.TRTA</t>
+  </si>
+  <si>
+    <t>ADVS.TRTAN</t>
+  </si>
+  <si>
+    <t>PARAMCD_ADVS</t>
+  </si>
+  <si>
+    <t>ADVS.PARAMCD</t>
+  </si>
+  <si>
+    <t>PARAM_ADVS</t>
+  </si>
+  <si>
+    <t>ADVS.PARAM</t>
+  </si>
+  <si>
+    <t>PARAMN_ADVS</t>
+  </si>
+  <si>
+    <t>ADVS.PARAMN</t>
+  </si>
+  <si>
+    <t>ADVS.ADT</t>
+  </si>
+  <si>
+    <t>ADVS.ADY</t>
+  </si>
+  <si>
+    <t>ATPTN</t>
+  </si>
+  <si>
+    <t>Analysis Timepoint (N)</t>
+  </si>
+  <si>
+    <t>ADVS.ATPTN</t>
+  </si>
+  <si>
+    <t>ATPT</t>
+  </si>
+  <si>
+    <t>Analysis Timepoint</t>
+  </si>
+  <si>
+    <t>ADVS.ATPT</t>
+  </si>
+  <si>
+    <t>ADVS.AVISIT</t>
+  </si>
+  <si>
+    <t>ADVS.AVISITN</t>
+  </si>
+  <si>
+    <t>ADVS.AVAL</t>
+  </si>
+  <si>
+    <t>ADVS.BASE</t>
+  </si>
+  <si>
+    <t>BASETYPE</t>
+  </si>
+  <si>
+    <t>Baseline Type</t>
+  </si>
+  <si>
+    <t>ADVS.BASETYPE</t>
+  </si>
+  <si>
+    <t>ADVS.CHG</t>
+  </si>
+  <si>
+    <t>ADVS.PCHG</t>
+  </si>
+  <si>
+    <t>ADVS.VISITNUM</t>
+  </si>
+  <si>
+    <t>ADVS.VISIT</t>
+  </si>
+  <si>
+    <t>VSSEQ</t>
+  </si>
+  <si>
+    <t>ADVS.VSSEQ</t>
+  </si>
+  <si>
+    <t>ADVS.ANL01FL</t>
+  </si>
+  <si>
+    <t>ADVS.ABLFL</t>
+  </si>
+  <si>
+    <t>DM.STUDYID</t>
+  </si>
+  <si>
+    <t>Duration of treatment</t>
+  </si>
+  <si>
+    <t>Parameter Description</t>
+  </si>
+  <si>
+    <t>Event Origin Date</t>
+  </si>
+  <si>
     <t>Source Domain</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCDOM</t>
-  </si>
-  <si>
-    <t>SRCVAR</t>
-  </si>
-  <si>
-    <t>Source Variable</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCVAR</t>
-  </si>
-  <si>
-    <t>SRCSEQ</t>
-  </si>
-  <si>
-    <t>Source Sequence Number</t>
-  </si>
-  <si>
-    <t>ADTTE.SRCSEQ</t>
-  </si>
-  <si>
-    <t>ADTTE.SAFFL</t>
-  </si>
-  <si>
-    <t>ADVS.STUDYID</t>
-  </si>
-  <si>
-    <t>ADVS.SITEID</t>
-  </si>
-  <si>
-    <t>ADVS.USUBJID</t>
-  </si>
-  <si>
-    <t>ADVS.AGE</t>
-  </si>
-  <si>
-    <t>ADVS.AGEGR1</t>
-  </si>
-  <si>
-    <t>ADVS.AGEGR1N</t>
-  </si>
-  <si>
-    <t>ADVS.RACE</t>
-  </si>
-  <si>
-    <t>ADVS.RACEN</t>
-  </si>
-  <si>
-    <t>ADVS.SEX</t>
-  </si>
-  <si>
-    <t>ADVS.SAFFL</t>
-  </si>
-  <si>
-    <t>ADVS.TRTSDT</t>
-  </si>
-  <si>
-    <t>ADVS.TRTEDT</t>
-  </si>
-  <si>
-    <t>ADVS.TRTP</t>
-  </si>
-  <si>
-    <t>ADVS.TRTPN</t>
-  </si>
-  <si>
-    <t>ADVS.TRTA</t>
-  </si>
-  <si>
-    <t>ADVS.TRTAN</t>
-  </si>
-  <si>
-    <t>PARAMCD_ADVS</t>
-  </si>
-  <si>
-    <t>ADVS.PARAMCD</t>
-  </si>
-  <si>
-    <t>PARAM_ADVS</t>
-  </si>
-  <si>
-    <t>ADVS.PARAM</t>
-  </si>
-  <si>
-    <t>PARAMN_ADVS</t>
-  </si>
-  <si>
-    <t>ADVS.PARAMN</t>
-  </si>
-  <si>
-    <t>ADVS.ADT</t>
-  </si>
-  <si>
-    <t>ADVS.ADY</t>
-  </si>
-  <si>
-    <t>ATPTN</t>
-  </si>
-  <si>
-    <t>Analysis Timepoint (N)</t>
-  </si>
-  <si>
-    <t>ADVS.ATPTN</t>
-  </si>
-  <si>
-    <t>ATPT</t>
-  </si>
-  <si>
-    <t>Analysis Timepoint</t>
-  </si>
-  <si>
-    <t>ADVS.ATPT</t>
-  </si>
-  <si>
-    <t>ADVS.AVISIT</t>
-  </si>
-  <si>
-    <t>ADVS.AVISITN</t>
-  </si>
-  <si>
-    <t>ADVS.AVAL</t>
-  </si>
-  <si>
-    <t>ADVS.BASE</t>
-  </si>
-  <si>
-    <t>BASETYPE</t>
-  </si>
-  <si>
-    <t>Baseline Type</t>
-  </si>
-  <si>
-    <t>ADVS.BASETYPE</t>
-  </si>
-  <si>
-    <t>ADVS.CHG</t>
-  </si>
-  <si>
-    <t>ADVS.PCHG</t>
-  </si>
-  <si>
-    <t>ADVS.VISITNUM</t>
-  </si>
-  <si>
-    <t>ADVS.VISIT</t>
-  </si>
-  <si>
-    <t>VSSEQ</t>
-  </si>
-  <si>
-    <t>ADVS.VSSEQ</t>
-  </si>
-  <si>
-    <t>ADVS.ANL01FL</t>
-  </si>
-  <si>
-    <t>ADVS.ABLFL</t>
-  </si>
-  <si>
-    <t>DM.STUDYID</t>
-  </si>
-  <si>
-    <t>Duration of treatment</t>
-  </si>
-  <si>
-    <t>Parameter Description</t>
-  </si>
-  <si>
-    <t>Event Origin Date</t>
   </si>
   <si>
     <t>Github userID</t>
@@ -25342,7 +25342,7 @@
         <v>194</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>746</v>
+        <v>195</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>81</v>
@@ -25361,7 +25361,7 @@
         <v>226</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
@@ -25394,7 +25394,7 @@
         <v>226</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
@@ -25424,7 +25424,7 @@
         <v>226</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
@@ -25454,7 +25454,7 @@
         <v>226</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
@@ -25484,7 +25484,7 @@
         <v>226</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
@@ -25514,7 +25514,7 @@
         <v>226</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
@@ -25544,7 +25544,7 @@
         <v>226</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
@@ -25577,7 +25577,7 @@
         <v>226</v>
       </c>
       <c r="O399" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
@@ -25607,7 +25607,7 @@
         <v>226</v>
       </c>
       <c r="O400" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
@@ -25637,7 +25637,7 @@
         <v>226</v>
       </c>
       <c r="O401" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
@@ -25667,7 +25667,7 @@
         <v>226</v>
       </c>
       <c r="O402" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
@@ -25697,7 +25697,7 @@
         <v>226</v>
       </c>
       <c r="O403" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
@@ -25727,7 +25727,7 @@
         <v>226</v>
       </c>
       <c r="O404" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
@@ -25757,7 +25757,7 @@
         <v>226</v>
       </c>
       <c r="O405" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
@@ -25771,7 +25771,7 @@
         <v>106</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>81</v>
@@ -25790,7 +25790,7 @@
         <v>226</v>
       </c>
       <c r="O406" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -25801,10 +25801,10 @@
         <v>50</v>
       </c>
       <c r="C407" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>81</v>
@@ -25823,7 +25823,7 @@
         <v>226</v>
       </c>
       <c r="O407" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
@@ -25834,10 +25834,10 @@
         <v>50</v>
       </c>
       <c r="C408" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>96</v>
@@ -25867,10 +25867,10 @@
         <v>50</v>
       </c>
       <c r="C409" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>81</v>
@@ -25889,7 +25889,7 @@
         <v>226</v>
       </c>
       <c r="O409" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
@@ -25900,10 +25900,10 @@
         <v>50</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>96</v>
@@ -25922,7 +25922,7 @@
         <v>226</v>
       </c>
       <c r="O410" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
@@ -25955,7 +25955,7 @@
         <v>226</v>
       </c>
       <c r="O411" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
@@ -25988,7 +25988,7 @@
         <v>226</v>
       </c>
       <c r="O412" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
@@ -25999,10 +25999,10 @@
         <v>50</v>
       </c>
       <c r="C413" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>96</v>
@@ -26018,7 +26018,7 @@
         <v>226</v>
       </c>
       <c r="O413" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
@@ -26029,10 +26029,10 @@
         <v>50</v>
       </c>
       <c r="C414" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>153</v>
@@ -26051,7 +26051,7 @@
         <v>226</v>
       </c>
       <c r="O414" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
@@ -26062,10 +26062,10 @@
         <v>50</v>
       </c>
       <c r="C415" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>153</v>
@@ -26084,7 +26084,7 @@
         <v>226</v>
       </c>
       <c r="O415" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
@@ -26114,7 +26114,7 @@
         <v>226</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
@@ -26147,7 +26147,7 @@
         <v>226</v>
       </c>
       <c r="O417" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
@@ -26180,7 +26180,7 @@
         <v>226</v>
       </c>
       <c r="O418" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
@@ -26191,10 +26191,10 @@
         <v>50</v>
       </c>
       <c r="C419" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>81</v>
@@ -26206,14 +26206,14 @@
         <v>27</v>
       </c>
       <c r="K419" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L419" s="3"/>
       <c r="M419" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O419" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
@@ -26246,7 +26246,7 @@
         <v>226</v>
       </c>
       <c r="O420" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
@@ -26279,7 +26279,7 @@
         <v>226</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
@@ -26312,7 +26312,7 @@
         <v>226</v>
       </c>
       <c r="O422" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
@@ -26323,10 +26323,10 @@
         <v>50</v>
       </c>
       <c r="C423" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>81</v>
@@ -26338,14 +26338,14 @@
         <v>27</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L423" s="3"/>
       <c r="M423" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O423" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
@@ -26378,7 +26378,7 @@
         <v>226</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
@@ -26411,7 +26411,7 @@
         <v>226</v>
       </c>
       <c r="O425" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
@@ -26444,7 +26444,7 @@
         <v>226</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
@@ -26455,10 +26455,10 @@
         <v>50</v>
       </c>
       <c r="C427" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>81</v>
@@ -26477,7 +26477,7 @@
         <v>226</v>
       </c>
       <c r="O427" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
@@ -26488,10 +26488,10 @@
         <v>50</v>
       </c>
       <c r="C428" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>81</v>
@@ -26510,7 +26510,7 @@
         <v>226</v>
       </c>
       <c r="O428" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
@@ -26543,7 +26543,7 @@
         <v>226</v>
       </c>
       <c r="O429" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
@@ -26554,10 +26554,10 @@
         <v>50</v>
       </c>
       <c r="C430" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>81</v>
@@ -26576,7 +26576,7 @@
         <v>226</v>
       </c>
       <c r="O430" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
@@ -26609,7 +26609,7 @@
         <v>226</v>
       </c>
       <c r="O431" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
@@ -26620,10 +26620,10 @@
         <v>50</v>
       </c>
       <c r="C432" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>81</v>
@@ -26642,7 +26642,7 @@
         <v>226</v>
       </c>
       <c r="O432" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
@@ -26653,10 +26653,10 @@
         <v>50</v>
       </c>
       <c r="C433" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>153</v>
@@ -26675,7 +26675,7 @@
         <v>226</v>
       </c>
       <c r="O433" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
@@ -26686,10 +26686,10 @@
         <v>50</v>
       </c>
       <c r="C434" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D434" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>81</v>
@@ -26701,14 +26701,14 @@
         <v>27</v>
       </c>
       <c r="K434" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L434" s="3"/>
       <c r="M434" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
@@ -26719,10 +26719,10 @@
         <v>50</v>
       </c>
       <c r="C435" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>153</v>
@@ -26741,7 +26741,7 @@
         <v>226</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
@@ -26752,10 +26752,10 @@
         <v>50</v>
       </c>
       <c r="C436" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D436" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>153</v>
@@ -26774,7 +26774,7 @@
         <v>226</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
@@ -26785,10 +26785,10 @@
         <v>50</v>
       </c>
       <c r="C437" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D437" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>96</v>
@@ -26804,7 +26804,7 @@
         <v>226</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
@@ -26815,10 +26815,10 @@
         <v>50</v>
       </c>
       <c r="C438" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>96</v>
@@ -26837,7 +26837,7 @@
         <v>226</v>
       </c>
       <c r="O438" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
@@ -26848,10 +26848,10 @@
         <v>50</v>
       </c>
       <c r="C439" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D439" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>153</v>
@@ -26870,7 +26870,7 @@
         <v>226</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
@@ -26881,10 +26881,10 @@
         <v>50</v>
       </c>
       <c r="C440" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>81</v>
@@ -26896,14 +26896,14 @@
         <v>27</v>
       </c>
       <c r="K440" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L440" s="3"/>
       <c r="M440" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
@@ -26914,10 +26914,10 @@
         <v>50</v>
       </c>
       <c r="C441" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>96</v>
@@ -26936,7 +26936,7 @@
         <v>226</v>
       </c>
       <c r="O441" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
@@ -26947,10 +26947,10 @@
         <v>50</v>
       </c>
       <c r="C442" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>81</v>
@@ -26966,7 +26966,7 @@
         <v>226</v>
       </c>
       <c r="O442" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
@@ -26977,10 +26977,10 @@
         <v>50</v>
       </c>
       <c r="C443" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D443" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>81</v>
@@ -26996,7 +26996,7 @@
         <v>226</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
@@ -27007,10 +27007,10 @@
         <v>50</v>
       </c>
       <c r="C444" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D444" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>96</v>
@@ -27026,7 +27026,7 @@
         <v>226</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
@@ -27037,10 +27037,10 @@
         <v>50</v>
       </c>
       <c r="C445" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D445" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>96</v>
@@ -27059,7 +27059,7 @@
         <v>226</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
@@ -27070,10 +27070,10 @@
         <v>50</v>
       </c>
       <c r="C446" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D446" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>81</v>
@@ -27085,14 +27085,14 @@
         <v>27</v>
       </c>
       <c r="K446" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L446" s="3"/>
       <c r="M446" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
@@ -27103,10 +27103,10 @@
         <v>50</v>
       </c>
       <c r="C447" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D447" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>81</v>
@@ -27122,7 +27122,7 @@
         <v>226</v>
       </c>
       <c r="O447" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
@@ -27133,10 +27133,10 @@
         <v>50</v>
       </c>
       <c r="C448" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D448" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>81</v>
@@ -27148,14 +27148,14 @@
         <v>27</v>
       </c>
       <c r="K448" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L448" s="3"/>
       <c r="M448" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
@@ -27166,10 +27166,10 @@
         <v>50</v>
       </c>
       <c r="C449" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D449" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>96</v>
@@ -27185,7 +27185,7 @@
         <v>226</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
@@ -27218,7 +27218,7 @@
         <v>226</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
@@ -27251,7 +27251,7 @@
         <v>226</v>
       </c>
       <c r="O451" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
@@ -27284,7 +27284,7 @@
         <v>226</v>
       </c>
       <c r="O452" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
@@ -27317,7 +27317,7 @@
         <v>226</v>
       </c>
       <c r="O453" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
@@ -27353,7 +27353,7 @@
         <v>226</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
@@ -27389,7 +27389,7 @@
         <v>226</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
@@ -27425,7 +27425,7 @@
         <v>226</v>
       </c>
       <c r="O456" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
@@ -27461,7 +27461,7 @@
         <v>226</v>
       </c>
       <c r="O457" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
@@ -27497,7 +27497,7 @@
         <v>226</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
@@ -27530,7 +27530,7 @@
         <v>226</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
@@ -27563,7 +27563,7 @@
         <v>226</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1">
@@ -27574,10 +27574,10 @@
         <v>55</v>
       </c>
       <c r="C461" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>96</v>
@@ -27596,7 +27596,7 @@
         <v>226</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
@@ -27632,7 +27632,7 @@
         <v>226</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1">
@@ -27668,7 +27668,7 @@
         <v>226</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1">
@@ -27701,7 +27701,7 @@
         <v>226</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
@@ -27730,14 +27730,14 @@
         <v>27</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L465" s="3"/>
       <c r="M465" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
@@ -27766,14 +27766,14 @@
         <v>27</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L466" s="3"/>
       <c r="M466" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
@@ -27803,7 +27803,7 @@
         <v>226</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
@@ -27814,10 +27814,10 @@
         <v>55</v>
       </c>
       <c r="C468" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>96</v>
@@ -27836,7 +27836,7 @@
         <v>226</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
@@ -27869,7 +27869,7 @@
         <v>226</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
@@ -27880,10 +27880,10 @@
         <v>55</v>
       </c>
       <c r="C470" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>96</v>
@@ -27895,14 +27895,14 @@
         <v>27</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L470" s="3"/>
       <c r="M470" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
@@ -27913,10 +27913,10 @@
         <v>55</v>
       </c>
       <c r="C471" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>81</v>
@@ -27935,7 +27935,7 @@
         <v>226</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="472" ht="15.75" customHeight="1">
@@ -27946,10 +27946,10 @@
         <v>55</v>
       </c>
       <c r="C472" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D472" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>81</v>
@@ -27968,7 +27968,7 @@
         <v>226</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1">
@@ -27979,10 +27979,10 @@
         <v>55</v>
       </c>
       <c r="C473" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>81</v>
@@ -28001,7 +28001,7 @@
         <v>226</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1">
@@ -28012,10 +28012,10 @@
         <v>55</v>
       </c>
       <c r="C474" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>96</v>
@@ -28031,7 +28031,7 @@
         <v>226</v>
       </c>
       <c r="O474" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
@@ -28067,7 +28067,7 @@
         <v>226</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
@@ -28097,7 +28097,7 @@
         <v>226</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
@@ -28127,7 +28127,7 @@
         <v>226</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
@@ -28157,7 +28157,7 @@
         <v>226</v>
       </c>
       <c r="O478" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
@@ -28187,7 +28187,7 @@
         <v>226</v>
       </c>
       <c r="O479" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
@@ -28220,7 +28220,7 @@
         <v>226</v>
       </c>
       <c r="O480" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1">
@@ -28253,7 +28253,7 @@
         <v>226</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
@@ -28286,7 +28286,7 @@
         <v>226</v>
       </c>
       <c r="O482" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="483" ht="15.75" customHeight="1">
@@ -28319,7 +28319,7 @@
         <v>226</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" ht="15.75" customHeight="1">
@@ -28352,7 +28352,7 @@
         <v>226</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
@@ -28385,7 +28385,7 @@
         <v>226</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
@@ -28418,7 +28418,7 @@
         <v>226</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
@@ -28451,7 +28451,7 @@
         <v>226</v>
       </c>
       <c r="O487" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
@@ -28484,7 +28484,7 @@
         <v>226</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
@@ -28517,7 +28517,7 @@
         <v>226</v>
       </c>
       <c r="O489" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
@@ -28550,7 +28550,7 @@
         <v>226</v>
       </c>
       <c r="O490" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
@@ -28583,7 +28583,7 @@
         <v>226</v>
       </c>
       <c r="O491" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
@@ -28609,14 +28609,14 @@
         <v>27</v>
       </c>
       <c r="K492" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L492" s="3"/>
       <c r="M492" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O492" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
@@ -28642,14 +28642,14 @@
         <v>27</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L493" s="3"/>
       <c r="M493" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O493" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
@@ -28675,14 +28675,14 @@
         <v>27</v>
       </c>
       <c r="K494" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L494" s="3"/>
       <c r="M494" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O494" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
@@ -28715,7 +28715,7 @@
         <v>226</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
@@ -28745,7 +28745,7 @@
         <v>226</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
@@ -28756,10 +28756,10 @@
         <v>59</v>
       </c>
       <c r="C497" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D497" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>96</v>
@@ -28775,7 +28775,7 @@
         <v>226</v>
       </c>
       <c r="O497" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
@@ -28786,10 +28786,10 @@
         <v>59</v>
       </c>
       <c r="C498" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D498" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>81</v>
@@ -28801,14 +28801,14 @@
         <v>27</v>
       </c>
       <c r="K498" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L498" s="3"/>
       <c r="M498" s="2" t="s">
         <v>226</v>
       </c>
       <c r="O498" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
@@ -28841,7 +28841,7 @@
         <v>226</v>
       </c>
       <c r="O499" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
@@ -28874,7 +28874,7 @@
         <v>226</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
@@ -28907,7 +28907,7 @@
         <v>226</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
@@ -28940,7 +28940,7 @@
         <v>226</v>
       </c>
       <c r="O502" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
@@ -28951,10 +28951,10 @@
         <v>59</v>
       </c>
       <c r="C503" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D503" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>81</v>
@@ -28970,7 +28970,7 @@
         <v>226</v>
       </c>
       <c r="O503" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
@@ -29003,7 +29003,7 @@
         <v>226</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
@@ -29036,7 +29036,7 @@
         <v>226</v>
       </c>
       <c r="O505" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
@@ -29072,7 +29072,7 @@
         <v>226</v>
       </c>
       <c r="O506" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
@@ -29105,7 +29105,7 @@
         <v>226</v>
       </c>
       <c r="O507" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
@@ -29116,7 +29116,7 @@
         <v>59</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>225</v>
@@ -29135,7 +29135,7 @@
         <v>226</v>
       </c>
       <c r="O508" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
@@ -29168,7 +29168,7 @@
         <v>226</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
@@ -29201,7 +29201,7 @@
         <v>226</v>
       </c>
       <c r="O510" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
@@ -29230,7 +29230,7 @@
         <v>83</v>
       </c>
       <c r="P511" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
@@ -29447,10 +29447,10 @@
         <v>55</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E522" s="8" t="s">
         <v>96</v>
@@ -29530,7 +29530,7 @@
         <v>161</v>
       </c>
       <c r="D526" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E526" s="8" t="s">
         <v>81</v>
@@ -29587,10 +29587,10 @@
         <v>55</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E529" s="8" t="s">
         <v>96</v>
@@ -29627,10 +29627,10 @@
         <v>55</v>
       </c>
       <c r="C531" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="D531" s="8" t="s">
         <v>895</v>
-      </c>
-      <c r="D531" s="8" t="s">
-        <v>896</v>
       </c>
       <c r="E531" s="8" t="s">
         <v>96</v>
@@ -29647,10 +29647,10 @@
         <v>55</v>
       </c>
       <c r="C532" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="D532" s="8" t="s">
         <v>899</v>
-      </c>
-      <c r="D532" s="8" t="s">
-        <v>900</v>
       </c>
       <c r="E532" s="8" t="s">
         <v>81</v>
@@ -29667,10 +29667,10 @@
         <v>55</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>903</v>
+        <v>960</v>
       </c>
       <c r="E533" s="8" t="s">
         <v>81</v>
@@ -29687,10 +29687,10 @@
         <v>55</v>
       </c>
       <c r="C534" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="D534" s="8" t="s">
         <v>905</v>
-      </c>
-      <c r="D534" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="E534" s="8" t="s">
         <v>81</v>
@@ -29707,10 +29707,10 @@
         <v>55</v>
       </c>
       <c r="C535" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="D535" s="8" t="s">
         <v>908</v>
-      </c>
-      <c r="D535" s="8" t="s">
-        <v>909</v>
       </c>
       <c r="I535" s="8" t="s">
         <v>27</v>
@@ -30282,7 +30282,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>967</v>
@@ -30322,7 +30322,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>971</v>
@@ -30402,7 +30402,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>977</v>
@@ -30442,7 +30442,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>979</v>
@@ -30482,7 +30482,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>981</v>
@@ -30522,7 +30522,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>983</v>
@@ -39191,10 +39191,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>81</v>
@@ -39328,10 +39328,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>81</v>
@@ -39348,10 +39348,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>81</v>
@@ -39368,10 +39368,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>81</v>
@@ -40048,10 +40048,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>81</v>
@@ -40068,10 +40068,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>81</v>
@@ -40088,10 +40088,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>81</v>
@@ -40108,10 +40108,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>96</v>
@@ -40128,10 +40128,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
@@ -40148,10 +40148,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>81</v>
@@ -40168,10 +40168,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>81</v>
@@ -40188,10 +40188,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>81</v>
@@ -40208,10 +40208,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>81</v>
@@ -40228,10 +40228,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>81</v>
@@ -40248,10 +40248,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>81</v>
@@ -40268,10 +40268,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>81</v>
@@ -40288,10 +40288,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>81</v>
@@ -40308,10 +40308,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>81</v>
@@ -40328,10 +40328,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>81</v>
@@ -40348,10 +40348,10 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>81</v>
@@ -40368,10 +40368,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>81</v>
@@ -40388,10 +40388,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>81</v>
@@ -40408,10 +40408,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>81</v>
@@ -40428,10 +40428,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>81</v>
@@ -40448,10 +40448,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>81</v>
@@ -40468,10 +40468,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>81</v>
@@ -40488,10 +40488,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>81</v>
@@ -40508,10 +40508,10 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>81</v>
@@ -40568,10 +40568,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>81</v>
@@ -40588,10 +40588,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>81</v>
@@ -40608,10 +40608,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>81</v>
@@ -40628,10 +40628,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>81</v>
@@ -40648,10 +40648,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>81</v>
@@ -40668,10 +40668,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>81</v>
@@ -43008,10 +43008,10 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>81</v>
@@ -43028,10 +43028,10 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>81</v>
@@ -43048,10 +43048,10 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>81</v>
@@ -43068,10 +43068,10 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>81</v>
@@ -43088,10 +43088,10 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>81</v>
@@ -43108,10 +43108,10 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>81</v>
@@ -43128,10 +43128,10 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>81</v>
@@ -45268,10 +45268,10 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>96</v>
@@ -45288,10 +45288,10 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>96</v>
@@ -45308,10 +45308,10 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>96</v>
@@ -45328,10 +45328,10 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>96</v>
@@ -45348,10 +45348,10 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>96</v>
@@ -45368,10 +45368,10 @@
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>96</v>
@@ -47528,10 +47528,10 @@
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>81</v>
@@ -47548,10 +47548,10 @@
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>81</v>
@@ -47568,10 +47568,10 @@
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>81</v>
@@ -47588,10 +47588,10 @@
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>81</v>
@@ -47608,10 +47608,10 @@
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>81</v>
@@ -47628,10 +47628,10 @@
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>81</v>
@@ -47648,10 +47648,10 @@
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>81</v>
@@ -51620,7 +51620,7 @@
         <v>1459</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32">
@@ -51634,7 +51634,7 @@
         <v>1459</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33">
@@ -51648,7 +51648,7 @@
         <v>1459</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34">
@@ -51816,7 +51816,7 @@
         <v>1459</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46">
@@ -51830,7 +51830,7 @@
         <v>1459</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47">
@@ -51844,7 +51844,7 @@
         <v>1459</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="48">
@@ -51858,7 +51858,7 @@
         <v>1459</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49">
@@ -51872,7 +51872,7 @@
         <v>1459</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50">
@@ -51886,7 +51886,7 @@
         <v>1459</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51">
@@ -51900,7 +51900,7 @@
         <v>1459</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52">
@@ -51914,7 +51914,7 @@
         <v>1459</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="53">
@@ -51928,7 +51928,7 @@
         <v>1459</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="54">
@@ -51956,7 +51956,7 @@
         <v>1459</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="56">
@@ -51970,7 +51970,7 @@
         <v>1459</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57">
@@ -52068,7 +52068,7 @@
         <v>1459</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64">
@@ -52082,7 +52082,7 @@
         <v>1459</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65">
@@ -52096,7 +52096,7 @@
         <v>1459</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="66">
@@ -52264,7 +52264,7 @@
         <v>1459</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="78">
@@ -52278,7 +52278,7 @@
         <v>1459</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="79">
@@ -52474,7 +52474,7 @@
         <v>1459</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="93">
@@ -52488,7 +52488,7 @@
         <v>1459</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94">
@@ -52502,7 +52502,7 @@
         <v>1459</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="95">
@@ -52670,7 +52670,7 @@
         <v>1459</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107">
@@ -52684,7 +52684,7 @@
         <v>1459</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="108">
@@ -52824,7 +52824,7 @@
         <v>1459</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="118">
@@ -52838,7 +52838,7 @@
         <v>1459</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="119">
@@ -52852,7 +52852,7 @@
         <v>1459</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="120">
@@ -52866,7 +52866,7 @@
         <v>1459</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="121">
@@ -52880,7 +52880,7 @@
         <v>1459</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="122">
@@ -52894,7 +52894,7 @@
         <v>1459</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="123">
@@ -52908,7 +52908,7 @@
         <v>1459</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="124">
@@ -52922,7 +52922,7 @@
         <v>1459</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="125">
@@ -52936,7 +52936,7 @@
         <v>1459</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126">
@@ -52950,7 +52950,7 @@
         <v>1459</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="127">
@@ -52978,7 +52978,7 @@
         <v>1459</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="129">
@@ -52992,7 +52992,7 @@
         <v>1459</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="130">
@@ -53062,7 +53062,7 @@
         <v>1459</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135">
@@ -53076,7 +53076,7 @@
         <v>1459</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="136">
@@ -53090,7 +53090,7 @@
         <v>1459</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="137">
@@ -53104,7 +53104,7 @@
         <v>1459</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="138">
@@ -53118,7 +53118,7 @@
         <v>1459</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="139">
@@ -53132,7 +53132,7 @@
         <v>1459</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="140">
@@ -53146,7 +53146,7 @@
         <v>1459</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="141">
@@ -53160,7 +53160,7 @@
         <v>1459</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="142">
@@ -53174,7 +53174,7 @@
         <v>1459</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="143">
@@ -53188,7 +53188,7 @@
         <v>1459</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="144">
@@ -53216,7 +53216,7 @@
         <v>1459</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="146">
@@ -53230,7 +53230,7 @@
         <v>1459</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="147">
@@ -53356,7 +53356,7 @@
         <v>1459</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="156">
@@ -53370,7 +53370,7 @@
         <v>1459</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="157">
@@ -53384,7 +53384,7 @@
         <v>1459</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="158">
@@ -53552,7 +53552,7 @@
         <v>1459</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="170">
@@ -53566,7 +53566,7 @@
         <v>1459</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="171">
@@ -54350,7 +54350,7 @@
         <v>1459</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227">
@@ -54364,7 +54364,7 @@
         <v>1459</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="228">
@@ -54378,7 +54378,7 @@
         <v>1459</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="229">
@@ -54392,7 +54392,7 @@
         <v>1459</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230">
@@ -54406,7 +54406,7 @@
         <v>1459</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="231">
@@ -54420,7 +54420,7 @@
         <v>1459</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="232">
@@ -54434,7 +54434,7 @@
         <v>1459</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="233">
@@ -54448,7 +54448,7 @@
         <v>1459</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="234">
@@ -54462,7 +54462,7 @@
         <v>1459</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="235">
@@ -54476,7 +54476,7 @@
         <v>1459</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="236">
@@ -54504,7 +54504,7 @@
         <v>1459</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238">
@@ -54518,7 +54518,7 @@
         <v>1459</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="239">
@@ -54630,7 +54630,7 @@
         <v>1459</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="247">
@@ -54644,7 +54644,7 @@
         <v>1459</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="248">
@@ -54658,7 +54658,7 @@
         <v>1459</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="249">
@@ -54756,7 +54756,7 @@
         <v>1459</v>
       </c>
       <c r="D255" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="256">
@@ -54812,7 +54812,7 @@
         <v>1459</v>
       </c>
       <c r="D259" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="260">
@@ -54924,7 +54924,7 @@
         <v>1459</v>
       </c>
       <c r="D267" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="268">
@@ -54938,7 +54938,7 @@
         <v>1459</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="269">
@@ -54952,7 +54952,7 @@
         <v>1459</v>
       </c>
       <c r="D269" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="270">
@@ -54966,7 +54966,7 @@
         <v>1459</v>
       </c>
       <c r="D270" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="271">
@@ -55008,7 +55008,7 @@
         <v>1459</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="274">
@@ -55022,7 +55022,7 @@
         <v>1459</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="275">
@@ -55036,7 +55036,7 @@
         <v>1459</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="276">
@@ -55050,7 +55050,7 @@
         <v>1459</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="277">
@@ -55064,7 +55064,7 @@
         <v>1459</v>
       </c>
       <c r="D277" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="278">
@@ -55078,7 +55078,7 @@
         <v>1459</v>
       </c>
       <c r="D278" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279">
@@ -55106,7 +55106,7 @@
         <v>1459</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="281">
@@ -55120,7 +55120,7 @@
         <v>1459</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="282">
@@ -55167,7 +55167,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>1815</v>
@@ -55223,7 +55223,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>1819</v>
@@ -55293,7 +55293,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>1824</v>
@@ -55909,7 +55909,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1868</v>
@@ -55923,7 +55923,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1869</v>
@@ -55937,7 +55937,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>1870</v>
@@ -55951,7 +55951,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>1871</v>
@@ -55965,7 +55965,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>1872</v>
@@ -55979,7 +55979,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1873</v>
@@ -56231,7 +56231,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>1891</v>
@@ -56245,7 +56245,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>1893</v>
@@ -56259,7 +56259,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1895</v>
@@ -56273,7 +56273,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>1897</v>
@@ -56287,7 +56287,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>1899</v>
@@ -56301,7 +56301,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1900</v>
@@ -56315,7 +56315,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>1902</v>
@@ -56329,7 +56329,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1904</v>
@@ -56343,7 +56343,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>1905</v>
@@ -56357,7 +56357,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1907</v>
@@ -56371,7 +56371,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1909</v>
@@ -56385,7 +56385,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1911</v>
@@ -56399,7 +56399,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1912</v>
@@ -56413,7 +56413,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1914</v>
@@ -56427,7 +56427,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1916</v>
@@ -56441,7 +56441,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>1918</v>
@@ -56455,7 +56455,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>1920</v>
@@ -56469,7 +56469,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>1922</v>
@@ -56483,7 +56483,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>1924</v>
@@ -56497,7 +56497,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>1926</v>
@@ -56511,7 +56511,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>1928</v>
@@ -56525,7 +56525,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>1930</v>
@@ -56539,7 +56539,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1932</v>
@@ -56553,7 +56553,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>1934</v>
@@ -56567,7 +56567,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>1936</v>
@@ -56581,7 +56581,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>1938</v>
@@ -56595,7 +56595,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>1940</v>
@@ -56609,7 +56609,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>1942</v>
@@ -56623,7 +56623,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>1944</v>
@@ -56637,7 +56637,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>1946</v>
@@ -56651,7 +56651,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>1948</v>
@@ -56665,7 +56665,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>1950</v>
@@ -56679,7 +56679,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>1952</v>
@@ -56693,7 +56693,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>1954</v>
@@ -56707,7 +56707,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>1956</v>
@@ -56721,7 +56721,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>1958</v>
@@ -56735,7 +56735,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>1960</v>
@@ -56744,12 +56744,12 @@
         <v>1459</v>
       </c>
       <c r="D397" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>1961</v>
@@ -56763,7 +56763,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>1963</v>
@@ -56777,7 +56777,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1965</v>
@@ -56791,7 +56791,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>1967</v>
@@ -56819,7 +56819,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>1970</v>
@@ -56833,7 +56833,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>1972</v>
@@ -56847,7 +56847,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>1974</v>
@@ -56861,7 +56861,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>1976</v>
@@ -56875,7 +56875,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>1978</v>
@@ -56889,7 +56889,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>1980</v>
@@ -56903,7 +56903,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>1982</v>
@@ -56917,7 +56917,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>1984</v>
@@ -56931,7 +56931,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>1986</v>
@@ -56940,12 +56940,12 @@
         <v>1459</v>
       </c>
       <c r="D411" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>1987</v>
@@ -56954,12 +56954,12 @@
         <v>1459</v>
       </c>
       <c r="D412" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>1988</v>
@@ -56968,12 +56968,12 @@
         <v>1459</v>
       </c>
       <c r="D413" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>1989</v>
@@ -56987,7 +56987,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>1991</v>
@@ -57001,7 +57001,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>1993</v>
@@ -57015,7 +57015,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>1995</v>
@@ -57029,7 +57029,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>1997</v>
@@ -57043,7 +57043,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>1999</v>
@@ -57052,12 +57052,12 @@
         <v>1459</v>
       </c>
       <c r="D419" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>2000</v>
@@ -57066,12 +57066,12 @@
         <v>1459</v>
       </c>
       <c r="D420" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>2001</v>
@@ -57080,12 +57080,12 @@
         <v>1459</v>
       </c>
       <c r="D421" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>2002</v>
@@ -57094,12 +57094,12 @@
         <v>1459</v>
       </c>
       <c r="D422" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>2003</v>
@@ -57108,12 +57108,12 @@
         <v>1459</v>
       </c>
       <c r="D423" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>2004</v>
@@ -57127,7 +57127,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>2006</v>
@@ -57141,7 +57141,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>2008</v>
@@ -57155,7 +57155,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>2010</v>
@@ -57164,12 +57164,12 @@
         <v>1459</v>
       </c>
       <c r="D427" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>2011</v>
@@ -57178,12 +57178,12 @@
         <v>1459</v>
       </c>
       <c r="D428" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>2012</v>
@@ -57192,12 +57192,12 @@
         <v>1459</v>
       </c>
       <c r="D429" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>2013</v>
@@ -57206,12 +57206,12 @@
         <v>1459</v>
       </c>
       <c r="D430" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>2014</v>
@@ -57220,12 +57220,12 @@
         <v>1459</v>
       </c>
       <c r="D431" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>2015</v>
@@ -57234,12 +57234,12 @@
         <v>1459</v>
       </c>
       <c r="D432" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>2016</v>
@@ -57248,12 +57248,12 @@
         <v>1459</v>
       </c>
       <c r="D433" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>2017</v>
@@ -57262,12 +57262,12 @@
         <v>1459</v>
       </c>
       <c r="D434" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>2018</v>
@@ -57276,12 +57276,12 @@
         <v>1459</v>
       </c>
       <c r="D435" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>2019</v>
@@ -57295,7 +57295,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>2021</v>
@@ -57309,7 +57309,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>2023</v>
@@ -57323,7 +57323,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>2025</v>
@@ -57332,12 +57332,12 @@
         <v>1459</v>
       </c>
       <c r="D439" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>2026</v>
@@ -57346,12 +57346,12 @@
         <v>1459</v>
       </c>
       <c r="D440" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>2027</v>
@@ -57360,12 +57360,12 @@
         <v>1459</v>
       </c>
       <c r="D441" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>2028</v>
@@ -57379,7 +57379,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>2030</v>
@@ -57393,7 +57393,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>2032</v>
@@ -57407,7 +57407,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>2034</v>
@@ -57421,7 +57421,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>2036</v>
@@ -57435,7 +57435,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>2038</v>
@@ -57449,7 +57449,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>2039</v>
@@ -57463,7 +57463,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>2041</v>
@@ -57477,7 +57477,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>2042</v>
@@ -57491,7 +57491,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>2043</v>
@@ -57505,7 +57505,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>2044</v>
@@ -57519,7 +57519,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>2046</v>
@@ -57533,7 +57533,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>2047</v>
@@ -57547,7 +57547,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>2049</v>
@@ -57556,12 +57556,12 @@
         <v>1459</v>
       </c>
       <c r="D455" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>2050</v>
@@ -57570,12 +57570,12 @@
         <v>1459</v>
       </c>
       <c r="D456" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>2051</v>
@@ -57584,12 +57584,12 @@
         <v>1459</v>
       </c>
       <c r="D457" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>2052</v>
@@ -57598,12 +57598,12 @@
         <v>1459</v>
       </c>
       <c r="D458" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>2053</v>
@@ -57612,12 +57612,12 @@
         <v>1459</v>
       </c>
       <c r="D459" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>2054</v>
@@ -57626,12 +57626,12 @@
         <v>1459</v>
       </c>
       <c r="D460" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>2055</v>
@@ -57640,12 +57640,12 @@
         <v>1459</v>
       </c>
       <c r="D461" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>2056</v>
@@ -57654,12 +57654,12 @@
         <v>1459</v>
       </c>
       <c r="D462" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>2057</v>
@@ -57668,12 +57668,12 @@
         <v>1459</v>
       </c>
       <c r="D463" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>2058</v>
@@ -57682,12 +57682,12 @@
         <v>1459</v>
       </c>
       <c r="D464" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>2059</v>
@@ -57701,7 +57701,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>2060</v>
@@ -57710,12 +57710,12 @@
         <v>1459</v>
       </c>
       <c r="D466" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>2061</v>
@@ -57724,12 +57724,12 @@
         <v>1459</v>
       </c>
       <c r="D467" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>2062</v>
@@ -57743,7 +57743,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>2064</v>
@@ -57757,7 +57757,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>2066</v>
@@ -57922,7 +57922,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$H$470"/>
   <customSheetViews>
-    <customSheetView guid="{0C7D5D17-4630-4B52-9B96-F7BC436122E5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{874AEB17-E353-4862-B794-4EF5AE8B80D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$I$500"/>
     </customSheetView>
   </customSheetViews>

--- a/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
+++ b/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
@@ -31,14 +31,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mjlIiopTC2j3ezfSm/6ZEXgAkaX8g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mg/JFUxQOmTIubPDxhj1CHsCKEWpQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="1288">
   <si>
     <t>Attribute</t>
   </si>
@@ -3928,7 +3928,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -3979,15 +3978,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -9479,11 +9484,11 @@
       <c r="E28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>83</v>
+      <c r="F28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="5">
+        <v>13.0</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>27</v>
@@ -15320,7 +15325,7 @@
       <c r="C210" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="6" t="s">
         <v>600</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -16472,11 +16477,11 @@
       <c r="F2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>83</v>
+      <c r="G2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -16507,11 +16512,11 @@
       <c r="F3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>83</v>
+      <c r="G3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -16542,11 +16547,11 @@
       <c r="F4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>83</v>
+      <c r="G4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -16577,11 +16582,11 @@
       <c r="F5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>83</v>
+      <c r="G5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -16612,11 +16617,11 @@
       <c r="F6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>83</v>
+      <c r="G6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -16647,11 +16652,11 @@
       <c r="F7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>83</v>
+      <c r="G7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -16682,11 +16687,11 @@
       <c r="F8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
+      <c r="G8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -16717,11 +16722,11 @@
       <c r="F9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>83</v>
+      <c r="G9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -16752,11 +16757,11 @@
       <c r="F10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
+      <c r="G10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -16787,11 +16792,11 @@
       <c r="F11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
+      <c r="G11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -16822,11 +16827,11 @@
       <c r="F12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>83</v>
+      <c r="G12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>27</v>
@@ -16857,11 +16862,11 @@
       <c r="F13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>83</v>
+      <c r="G13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>27</v>
@@ -16892,11 +16897,11 @@
       <c r="F14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>27</v>
@@ -16927,11 +16932,11 @@
       <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>83</v>
+      <c r="G15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>27</v>
@@ -16962,11 +16967,11 @@
       <c r="F16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>83</v>
+      <c r="G16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>27</v>
@@ -26699,7 +26704,7 @@
       <c r="C2" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>964</v>
       </c>
     </row>
@@ -26713,7 +26718,7 @@
       <c r="C3" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>966</v>
       </c>
     </row>
@@ -26727,7 +26732,7 @@
       <c r="C4" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>968</v>
       </c>
     </row>
@@ -26741,7 +26746,7 @@
       <c r="C5" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>970</v>
       </c>
     </row>
@@ -26755,7 +26760,7 @@
       <c r="C6" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>972</v>
       </c>
     </row>
@@ -26769,7 +26774,7 @@
       <c r="C7" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>974</v>
       </c>
     </row>
@@ -26783,7 +26788,7 @@
       <c r="C8" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>976</v>
       </c>
     </row>
@@ -26797,7 +26802,7 @@
       <c r="C9" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>978</v>
       </c>
     </row>
@@ -26811,7 +26816,7 @@
       <c r="C10" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>980</v>
       </c>
     </row>
@@ -26825,7 +26830,7 @@
       <c r="C11" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>982</v>
       </c>
     </row>
@@ -26839,7 +26844,7 @@
       <c r="C12" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>984</v>
       </c>
     </row>
@@ -26853,7 +26858,7 @@
       <c r="C13" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>986</v>
       </c>
     </row>
@@ -26867,7 +26872,7 @@
       <c r="C14" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>988</v>
       </c>
     </row>
@@ -26881,7 +26886,7 @@
       <c r="C15" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>990</v>
       </c>
     </row>
@@ -26895,7 +26900,7 @@
       <c r="C16" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>992</v>
       </c>
     </row>
@@ -26909,7 +26914,7 @@
       <c r="C17" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>994</v>
       </c>
     </row>
@@ -26923,7 +26928,7 @@
       <c r="C18" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>996</v>
       </c>
     </row>
@@ -26937,7 +26942,7 @@
       <c r="C19" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>998</v>
       </c>
     </row>
@@ -26951,7 +26956,7 @@
       <c r="C20" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -26965,7 +26970,7 @@
       <c r="C21" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -26979,7 +26984,7 @@
       <c r="C22" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -26993,7 +26998,7 @@
       <c r="C23" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -27007,7 +27012,7 @@
       <c r="C24" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -27021,7 +27026,7 @@
       <c r="C25" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -27035,7 +27040,7 @@
       <c r="C26" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -27049,7 +27054,7 @@
       <c r="C27" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -27063,7 +27068,7 @@
       <c r="C28" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -27077,7 +27082,7 @@
       <c r="C29" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -27091,7 +27096,7 @@
       <c r="C30" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -27105,7 +27110,7 @@
       <c r="C31" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -27119,7 +27124,7 @@
       <c r="C32" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -27133,7 +27138,7 @@
       <c r="C33" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -27147,7 +27152,7 @@
       <c r="C34" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -27161,7 +27166,7 @@
       <c r="C35" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -27175,7 +27180,7 @@
       <c r="C36" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -27189,7 +27194,7 @@
       <c r="C37" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -27203,7 +27208,7 @@
       <c r="C38" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -27217,7 +27222,7 @@
       <c r="C39" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -27231,7 +27236,7 @@
       <c r="C40" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -27245,7 +27250,7 @@
       <c r="C41" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -27259,7 +27264,7 @@
       <c r="C42" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>500</v>
       </c>
     </row>
@@ -27273,7 +27278,7 @@
       <c r="C43" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -27287,7 +27292,7 @@
       <c r="C44" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -27301,7 +27306,7 @@
       <c r="C45" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -27315,7 +27320,7 @@
       <c r="C46" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -27329,7 +27334,7 @@
       <c r="C47" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -27343,7 +27348,7 @@
       <c r="C48" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -27357,7 +27362,7 @@
       <c r="C49" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -27371,7 +27376,7 @@
       <c r="C50" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -27385,7 +27390,7 @@
       <c r="C51" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -27399,7 +27404,7 @@
       <c r="C52" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -27413,7 +27418,7 @@
       <c r="C53" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -27427,7 +27432,7 @@
       <c r="C54" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -27441,7 +27446,7 @@
       <c r="C55" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -27455,7 +27460,7 @@
       <c r="C56" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="7" t="s">
         <v>504</v>
       </c>
     </row>
@@ -27469,7 +27474,7 @@
       <c r="C57" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -27483,7 +27488,7 @@
       <c r="C58" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -27497,7 +27502,7 @@
       <c r="C59" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="7" t="s">
         <v>505</v>
       </c>
     </row>
@@ -27511,7 +27516,7 @@
       <c r="C60" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="7" t="s">
         <v>477</v>
       </c>
     </row>
@@ -27525,7 +27530,7 @@
       <c r="C61" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="7" t="s">
         <v>474</v>
       </c>
     </row>
@@ -27539,7 +27544,7 @@
       <c r="C62" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="7" t="s">
         <v>487</v>
       </c>
     </row>
@@ -27553,7 +27558,7 @@
       <c r="C63" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="7" t="s">
         <v>490</v>
       </c>
     </row>
@@ -27567,7 +27572,7 @@
       <c r="C64" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -27581,7 +27586,7 @@
       <c r="C65" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -27595,7 +27600,7 @@
       <c r="C66" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -27609,7 +27614,7 @@
       <c r="C67" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27623,7 +27628,7 @@
       <c r="C68" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="7" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -27637,7 +27642,7 @@
       <c r="C69" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="7" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -27651,7 +27656,7 @@
       <c r="C70" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="7" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -27665,7 +27670,7 @@
       <c r="C71" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="7" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -27679,7 +27684,7 @@
       <c r="C72" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="7" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -27693,7 +27698,7 @@
       <c r="C73" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="7" t="s">
         <v>500</v>
       </c>
     </row>
@@ -27707,7 +27712,7 @@
       <c r="C74" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -27721,7 +27726,7 @@
       <c r="C75" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -27735,7 +27740,7 @@
       <c r="C76" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="7" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -27749,7 +27754,7 @@
       <c r="C77" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27763,7 +27768,7 @@
       <c r="C78" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27777,7 +27782,7 @@
       <c r="C79" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27791,7 +27796,7 @@
       <c r="C80" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -27805,7 +27810,7 @@
       <c r="C81" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="7" t="s">
         <v>976</v>
       </c>
     </row>
@@ -27819,7 +27824,7 @@
       <c r="C82" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27833,7 +27838,7 @@
       <c r="C83" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27847,7 +27852,7 @@
       <c r="C84" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="7" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -27861,7 +27866,7 @@
       <c r="C85" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="7" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -27875,7 +27880,7 @@
       <c r="C86" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="7" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27889,7 +27894,7 @@
       <c r="C87" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -27903,7 +27908,7 @@
       <c r="C88" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -27917,7 +27922,7 @@
       <c r="C89" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="7" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -27931,7 +27936,7 @@
       <c r="C90" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="7" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -27945,7 +27950,7 @@
       <c r="C91" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="7" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -27959,7 +27964,7 @@
       <c r="C92" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="7" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -27973,7 +27978,7 @@
       <c r="C93" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="7" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -27987,7 +27992,7 @@
       <c r="C94" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="7" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -28001,7 +28006,7 @@
       <c r="C95" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="7" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -28015,7 +28020,7 @@
       <c r="C96" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="7" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -28029,7 +28034,7 @@
       <c r="C97" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -28043,7 +28048,7 @@
       <c r="C98" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="7" t="s">
         <v>504</v>
       </c>
     </row>
@@ -28057,7 +28062,7 @@
       <c r="C99" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -28071,7 +28076,7 @@
       <c r="C100" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -28085,7 +28090,7 @@
       <c r="C101" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="7" t="s">
         <v>505</v>
       </c>
     </row>
@@ -28099,7 +28104,7 @@
       <c r="C102" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="7" t="s">
         <v>474</v>
       </c>
     </row>
@@ -28113,7 +28118,7 @@
       <c r="C103" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="7" t="s">
         <v>476</v>
       </c>
     </row>
@@ -28127,7 +28132,7 @@
       <c r="C104" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="7" t="s">
         <v>487</v>
       </c>
     </row>
@@ -28141,7 +28146,7 @@
       <c r="C105" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="7" t="s">
         <v>490</v>
       </c>
     </row>
@@ -28155,7 +28160,7 @@
       <c r="C106" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28169,7 +28174,7 @@
       <c r="C107" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="7" t="s">
         <v>482</v>
       </c>
     </row>
@@ -28183,7 +28188,7 @@
       <c r="C108" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -28197,7 +28202,7 @@
       <c r="C109" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -28211,7 +28216,7 @@
       <c r="C110" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -28225,7 +28230,7 @@
       <c r="C111" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="7" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -28239,7 +28244,7 @@
       <c r="C112" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="7" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -28253,7 +28258,7 @@
       <c r="C113" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="7" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -28267,7 +28272,7 @@
       <c r="C114" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -28281,7 +28286,7 @@
       <c r="C115" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="7" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -28295,7 +28300,7 @@
       <c r="C116" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="7" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -28309,7 +28314,7 @@
       <c r="C117" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="7" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -28323,7 +28328,7 @@
       <c r="C118" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="7" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -28337,7 +28342,7 @@
       <c r="C119" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="7" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -28351,7 +28356,7 @@
       <c r="C120" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="7" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -28365,7 +28370,7 @@
       <c r="C121" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -28379,7 +28384,7 @@
       <c r="C122" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="7" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -28393,7 +28398,7 @@
       <c r="C123" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="7" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -28407,7 +28412,7 @@
       <c r="C124" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="7" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -28421,7 +28426,7 @@
       <c r="C125" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="7" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -28435,7 +28440,7 @@
       <c r="C126" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="7" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -28449,7 +28454,7 @@
       <c r="C127" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="7" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -28463,7 +28468,7 @@
       <c r="C128" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="7" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -28477,7 +28482,7 @@
       <c r="C129" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="7" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -28491,7 +28496,7 @@
       <c r="C130" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="7" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -28505,7 +28510,7 @@
       <c r="C131" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="7" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -28519,7 +28524,7 @@
       <c r="C132" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="7" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -28533,7 +28538,7 @@
       <c r="C133" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="7" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -28547,7 +28552,7 @@
       <c r="C134" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="7" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -28561,7 +28566,7 @@
       <c r="C135" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="7" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -28575,7 +28580,7 @@
       <c r="C136" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="7" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -28589,7 +28594,7 @@
       <c r="C137" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -28603,7 +28608,7 @@
       <c r="C138" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="7" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -28617,7 +28622,7 @@
       <c r="C139" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="7" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -28631,7 +28636,7 @@
       <c r="C140" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="7" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -28645,7 +28650,7 @@
       <c r="C141" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="7" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -28659,7 +28664,7 @@
       <c r="C142" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="7" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -28673,7 +28678,7 @@
       <c r="C143" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -28687,7 +28692,7 @@
       <c r="C144" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="7" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -28701,7 +28706,7 @@
       <c r="C145" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -28715,7 +28720,7 @@
       <c r="C146" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -28729,7 +28734,7 @@
       <c r="C147" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="7" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -28743,7 +28748,7 @@
       <c r="C148" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="7" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -28757,7 +28762,7 @@
       <c r="C149" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="7" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -28771,7 +28776,7 @@
       <c r="C150" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -28785,7 +28790,7 @@
       <c r="C151" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="7" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -28799,7 +28804,7 @@
       <c r="C152" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="7" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -28813,7 +28818,7 @@
       <c r="C153" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="7" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -28827,7 +28832,7 @@
       <c r="C154" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="7" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -28841,7 +28846,7 @@
       <c r="C155" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="7" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -28855,7 +28860,7 @@
       <c r="C156" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="7" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -28869,7 +28874,7 @@
       <c r="C157" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="7" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -28883,7 +28888,7 @@
       <c r="C158" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="7" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -28897,7 +28902,7 @@
       <c r="C159" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="7" t="s">
         <v>500</v>
       </c>
     </row>
@@ -28911,7 +28916,7 @@
       <c r="C160" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -28925,7 +28930,7 @@
       <c r="C161" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -28939,7 +28944,7 @@
       <c r="C162" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="7" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -28953,7 +28958,7 @@
       <c r="C163" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="7" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -28967,7 +28972,7 @@
       <c r="C164" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="7" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -28981,7 +28986,7 @@
       <c r="C165" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="7" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -28995,7 +29000,7 @@
       <c r="C166" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="7" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -29009,7 +29014,7 @@
       <c r="C167" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="7" t="s">
         <v>504</v>
       </c>
     </row>
@@ -29023,7 +29028,7 @@
       <c r="C168" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -29037,7 +29042,7 @@
       <c r="C169" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -29051,7 +29056,7 @@
       <c r="C170" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="7" t="s">
         <v>505</v>
       </c>
     </row>
@@ -29065,7 +29070,7 @@
       <c r="C171" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="7" t="s">
         <v>477</v>
       </c>
     </row>
@@ -29079,7 +29084,7 @@
       <c r="C172" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="7" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -29093,7 +29098,7 @@
       <c r="C173" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="7" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -29107,7 +29112,7 @@
       <c r="C174" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="7" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -29121,7 +29126,7 @@
       <c r="C175" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="7" t="s">
         <v>554</v>
       </c>
     </row>
@@ -29135,7 +29140,7 @@
       <c r="C176" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="7" t="s">
         <v>474</v>
       </c>
     </row>
@@ -29149,7 +29154,7 @@
       <c r="C177" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="7" t="s">
         <v>487</v>
       </c>
     </row>
@@ -29163,7 +29168,7 @@
       <c r="C178" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="7" t="s">
         <v>490</v>
       </c>
     </row>
@@ -29177,7 +29182,7 @@
       <c r="C179" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="7" t="s">
         <v>493</v>
       </c>
     </row>
@@ -29191,7 +29196,7 @@
       <c r="C180" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -29205,7 +29210,7 @@
       <c r="C181" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="7" t="s">
         <v>482</v>
       </c>
     </row>
@@ -29219,7 +29224,7 @@
       <c r="C182" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="7" t="s">
         <v>85</v>
       </c>
     </row>

--- a/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
+++ b/adam/TDF_ADaM - Pilot 3 Team updated.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RDevine\pilot3\adtte_specs\submissions-pilot3-adam\adam\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55419CA1-31DE-4DA5-A656-CC9CAF1974D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Define" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Datasets" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Variables" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ValueLevel" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Codelists" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Dictionaries" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Methods" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Comments" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Documents" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Analysis Displays" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Analysis Results" sheetId="11" r:id="rId14"/>
+    <sheet name="Define" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="ValueLevel" sheetId="4" r:id="rId4"/>
+    <sheet name="Codelists" sheetId="5" r:id="rId5"/>
+    <sheet name="Dictionaries" sheetId="6" r:id="rId6"/>
+    <sheet name="Methods" sheetId="7" r:id="rId7"/>
+    <sheet name="Comments" sheetId="8" r:id="rId8"/>
+    <sheet name="Documents" sheetId="9" r:id="rId9"/>
+    <sheet name="Analysis Displays" sheetId="10" r:id="rId10"/>
+    <sheet name="Analysis Results" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Define!$A$1:$B$5</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Datasets!$A$1:$I$6</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Variables!$A$1:$S$217</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">ValueLevel!$A$1:$R$16</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Codelists!$A$1:$H$340</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">Dictionaries!$A$1:$E$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Methods!$A$1:$H$182</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">Comments!$A$1:$D$9</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">Documents!$A$1:$C$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'Analysis Displays'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'Analysis Results'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Analysis Displays'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Analysis Results'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Comments!$A$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Define!$A$1:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Documents!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Methods!$A$1:$H$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$R$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$217</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mg/JFUxQOmTIubPDxhj1CHsCKEWpQ=="/>
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="1288">
   <si>
     <t>Attribute</t>
   </si>
@@ -3911,31 +3921,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="-apple-system"/>
     </font>
@@ -3945,7 +3956,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3967,90 +3978,56 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -4240,28 +4217,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4277,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4285,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -4301,7 +4278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -5290,32 +5267,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$B$5"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="19.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -6310,41 +6283,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$D$1"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="19.57"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="46.86"/>
-    <col customWidth="1" min="5" max="6" width="19.57"/>
-    <col customWidth="1" min="7" max="7" width="82.0"/>
-    <col customWidth="1" min="8" max="9" width="19.57"/>
-    <col customWidth="1" min="10" max="10" width="27.29"/>
-    <col customWidth="1" min="11" max="12" width="19.57"/>
-    <col customWidth="1" min="13" max="13" width="27.29"/>
-    <col customWidth="1" min="14" max="14" width="19.57"/>
-    <col customWidth="1" min="15" max="26" width="8.71"/>
+    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="82" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>1277</v>
       </c>
@@ -7369,39 +7338,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$N$1"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
-    <col customWidth="1" min="2" max="2" width="23.43"/>
-    <col customWidth="1" min="3" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="50.71"/>
-    <col customWidth="1" min="5" max="5" width="58.57"/>
-    <col customWidth="1" min="6" max="6" width="12.43"/>
-    <col customWidth="1" min="7" max="7" width="15.57"/>
-    <col customWidth="1" min="8" max="9" width="19.57"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7430,7 +7395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -7476,7 +7441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -7499,7 +7464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7522,7 +7487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -8526,47 +8491,43 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$I$6"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:I6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213:H217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
-    <col customWidth="1" min="2" max="3" width="18.71"/>
-    <col customWidth="1" min="4" max="4" width="23.43"/>
-    <col customWidth="1" min="5" max="5" width="11.71"/>
-    <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" min="7" max="7" width="15.57"/>
-    <col customWidth="1" min="8" max="8" width="11.0"/>
-    <col customWidth="1" min="9" max="9" width="11.71"/>
-    <col customWidth="1" min="10" max="10" width="16.29"/>
-    <col customWidth="1" min="11" max="11" width="12.86"/>
-    <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="12.86"/>
-    <col customWidth="1" min="14" max="14" width="11.71"/>
-    <col customWidth="1" min="15" max="15" width="13.71"/>
-    <col customWidth="1" min="16" max="16" width="15.29"/>
-    <col customWidth="1" min="17" max="19" width="15.57"/>
-    <col customWidth="1" min="20" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -8625,7 +8586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -8655,7 +8616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -8685,7 +8646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -8715,7 +8676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -8745,7 +8706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -8778,7 +8739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -8811,7 +8772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -8844,7 +8805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -8877,7 +8838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -8907,7 +8868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -8940,7 +8901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -8973,7 +8934,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -9006,7 +8967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
@@ -9039,7 +9000,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -9072,7 +9033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
@@ -9105,7 +9066,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>128</v>
       </c>
@@ -9138,7 +9099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
@@ -9171,7 +9132,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
         <v>136</v>
       </c>
@@ -9204,7 +9165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
@@ -9237,7 +9198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
@@ -9270,7 +9231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>149</v>
       </c>
@@ -9306,7 +9267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
@@ -9336,7 +9297,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>158</v>
       </c>
@@ -9369,7 +9330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>162</v>
       </c>
@@ -9402,7 +9363,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
@@ -9435,7 +9396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>173</v>
       </c>
@@ -9468,7 +9429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>178</v>
       </c>
@@ -9488,7 +9449,7 @@
         <v>128</v>
       </c>
       <c r="G28" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>27</v>
@@ -9501,7 +9462,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>182</v>
       </c>
@@ -9531,7 +9492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>186</v>
       </c>
@@ -9561,7 +9522,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>190</v>
       </c>
@@ -9591,7 +9552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>194</v>
       </c>
@@ -9621,7 +9582,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
@@ -9651,7 +9612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>201</v>
       </c>
@@ -9684,7 +9645,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>205</v>
       </c>
@@ -9714,7 +9675,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>209</v>
       </c>
@@ -9744,7 +9705,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
@@ -9774,7 +9735,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:18" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>217</v>
       </c>
@@ -9804,7 +9765,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>221</v>
       </c>
@@ -9834,7 +9795,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>225</v>
       </c>
@@ -9867,7 +9828,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>229</v>
       </c>
@@ -9897,7 +9858,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -9927,7 +9888,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
@@ -9957,7 +9918,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -9987,7 +9948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:18" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -10020,7 +9981,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:18" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -10053,7 +10014,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
@@ -10083,7 +10044,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:18" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
@@ -10116,7 +10077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -10149,7 +10110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -10182,7 +10143,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -10215,7 +10176,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -10248,7 +10209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -10281,7 +10242,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -10314,7 +10275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
@@ -10347,7 +10308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
@@ -10380,7 +10341,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -10410,7 +10371,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
@@ -10440,7 +10401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>136</v>
       </c>
@@ -10473,7 +10434,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -10503,7 +10464,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>93</v>
       </c>
@@ -10533,7 +10494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>149</v>
       </c>
@@ -10566,7 +10527,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>154</v>
       </c>
@@ -10596,7 +10557,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>158</v>
       </c>
@@ -10629,7 +10590,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>162</v>
       </c>
@@ -10659,7 +10620,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -10692,7 +10653,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>173</v>
       </c>
@@ -10722,7 +10683,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>178</v>
       </c>
@@ -10755,7 +10716,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>182</v>
       </c>
@@ -10785,7 +10746,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>186</v>
       </c>
@@ -10818,7 +10779,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>190</v>
       </c>
@@ -10848,7 +10809,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:15" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>194</v>
       </c>
@@ -10881,7 +10842,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>113</v>
       </c>
@@ -10914,7 +10875,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:15" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
@@ -10944,7 +10905,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:15" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>205</v>
       </c>
@@ -10974,7 +10935,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>209</v>
       </c>
@@ -11007,7 +10968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:15" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>213</v>
       </c>
@@ -11040,7 +11001,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>217</v>
       </c>
@@ -11073,7 +11034,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>221</v>
       </c>
@@ -11106,7 +11067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>225</v>
       </c>
@@ -11139,7 +11100,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>229</v>
       </c>
@@ -11172,7 +11133,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>333</v>
       </c>
@@ -11205,7 +11166,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>337</v>
       </c>
@@ -11238,7 +11199,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>341</v>
       </c>
@@ -11271,7 +11232,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:15" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>346</v>
       </c>
@@ -11301,7 +11262,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>350</v>
       </c>
@@ -11334,7 +11295,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>275</v>
       </c>
@@ -11364,7 +11325,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>357</v>
       </c>
@@ -11394,7 +11355,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>361</v>
       </c>
@@ -11424,7 +11385,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>365</v>
       </c>
@@ -11454,7 +11415,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>369</v>
       </c>
@@ -11484,7 +11445,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:15" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>373</v>
       </c>
@@ -11514,7 +11475,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>377</v>
       </c>
@@ -11544,7 +11505,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>381</v>
       </c>
@@ -11574,7 +11535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>385</v>
       </c>
@@ -11604,7 +11565,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>389</v>
       </c>
@@ -11634,7 +11595,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:16" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
@@ -11664,7 +11625,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:16" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>67</v>
       </c>
@@ -11694,7 +11655,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>70</v>
       </c>
@@ -11724,7 +11685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:16" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>75</v>
       </c>
@@ -11757,7 +11718,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:16" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>79</v>
       </c>
@@ -11790,7 +11751,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:16" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
@@ -11823,7 +11784,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:16" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>90</v>
       </c>
@@ -11856,7 +11817,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:16" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>83</v>
       </c>
@@ -11889,7 +11850,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:16" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
@@ -11922,7 +11883,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:16" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -11952,7 +11913,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:16" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>77</v>
       </c>
@@ -11985,7 +11946,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:16" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>65</v>
       </c>
@@ -12018,7 +11979,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:16" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>115</v>
       </c>
@@ -12051,7 +12012,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:16" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -12084,7 +12045,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:16" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>123</v>
       </c>
@@ -12117,7 +12078,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:16" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>128</v>
       </c>
@@ -12150,7 +12111,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:16" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
@@ -12183,7 +12144,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:16" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>136</v>
       </c>
@@ -12216,7 +12177,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:16" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>141</v>
       </c>
@@ -12249,7 +12210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:16" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>93</v>
       </c>
@@ -12282,7 +12243,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:16" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -12312,7 +12273,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:16" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>154</v>
       </c>
@@ -12345,7 +12306,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:16" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>158</v>
       </c>
@@ -12378,7 +12339,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:16" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>162</v>
       </c>
@@ -12414,7 +12375,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:16" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>168</v>
       </c>
@@ -12447,7 +12408,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:16" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>173</v>
       </c>
@@ -12480,7 +12441,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:16" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>178</v>
       </c>
@@ -12513,7 +12474,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:16" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>182</v>
       </c>
@@ -12546,7 +12507,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:16" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>186</v>
       </c>
@@ -12579,7 +12540,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:16" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>190</v>
       </c>
@@ -12612,7 +12573,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:16" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>194</v>
       </c>
@@ -12645,7 +12606,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:16" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>113</v>
       </c>
@@ -12678,7 +12639,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:16" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>201</v>
       </c>
@@ -12711,7 +12672,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:16" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>205</v>
       </c>
@@ -12744,7 +12705,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:16" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>209</v>
       </c>
@@ -12777,7 +12738,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:16" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>213</v>
       </c>
@@ -12810,7 +12771,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:16" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>217</v>
       </c>
@@ -12843,7 +12804,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:16" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>221</v>
       </c>
@@ -12873,7 +12834,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:16" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>225</v>
       </c>
@@ -12906,7 +12867,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:16" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>229</v>
       </c>
@@ -12939,7 +12900,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:16" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>333</v>
       </c>
@@ -12972,7 +12933,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:16" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>337</v>
       </c>
@@ -13002,7 +12963,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:16" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>341</v>
       </c>
@@ -13032,7 +12993,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:16" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>346</v>
       </c>
@@ -13062,7 +13023,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:16" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>350</v>
       </c>
@@ -13095,7 +13056,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:16" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>275</v>
       </c>
@@ -13128,7 +13089,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:16" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>61</v>
       </c>
@@ -13158,7 +13119,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:16" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>67</v>
       </c>
@@ -13188,7 +13149,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:15" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>70</v>
       </c>
@@ -13218,7 +13179,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:15" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>75</v>
       </c>
@@ -13248,7 +13209,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:15" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>79</v>
       </c>
@@ -13278,7 +13239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:15" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
@@ -13311,7 +13272,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:15" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>90</v>
       </c>
@@ -13344,7 +13305,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:15" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>83</v>
       </c>
@@ -13377,7 +13338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:15" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>100</v>
       </c>
@@ -13410,7 +13371,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:15" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>104</v>
       </c>
@@ -13443,7 +13404,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:15" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>77</v>
       </c>
@@ -13476,7 +13437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:15" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -13509,7 +13470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:15" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>115</v>
       </c>
@@ -13539,7 +13500,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:15" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>119</v>
       </c>
@@ -13572,7 +13533,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:15" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>123</v>
       </c>
@@ -13605,7 +13566,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:15" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>128</v>
       </c>
@@ -13635,7 +13596,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:15" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>132</v>
       </c>
@@ -13668,7 +13629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:15" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>136</v>
       </c>
@@ -13701,7 +13662,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:15" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>141</v>
       </c>
@@ -13734,7 +13695,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:15" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -13767,7 +13728,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:15" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>149</v>
       </c>
@@ -13800,7 +13761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:15" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>154</v>
       </c>
@@ -13833,7 +13794,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:15" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>158</v>
       </c>
@@ -13866,7 +13827,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:15" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>162</v>
       </c>
@@ -13899,7 +13860,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:15" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
@@ -13932,7 +13893,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:15" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>173</v>
       </c>
@@ -13965,7 +13926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:15" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>178</v>
       </c>
@@ -13998,7 +13959,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:15" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>182</v>
       </c>
@@ -14031,7 +13992,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:15" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>186</v>
       </c>
@@ -14064,7 +14025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:15" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>190</v>
       </c>
@@ -14094,7 +14055,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:15" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>194</v>
       </c>
@@ -14124,7 +14085,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:15" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>113</v>
       </c>
@@ -14154,7 +14115,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:15" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>201</v>
       </c>
@@ -14187,7 +14148,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:15" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>205</v>
       </c>
@@ -14220,7 +14181,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:15" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>209</v>
       </c>
@@ -14253,7 +14214,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:15" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>213</v>
       </c>
@@ -14286,7 +14247,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:15" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>217</v>
       </c>
@@ -14316,7 +14277,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:15" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>221</v>
       </c>
@@ -14349,7 +14310,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:15" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>225</v>
       </c>
@@ -14382,7 +14343,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:15" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>229</v>
       </c>
@@ -14415,7 +14376,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:15" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>333</v>
       </c>
@@ -14448,7 +14409,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:15" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>337</v>
       </c>
@@ -14478,7 +14439,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:15" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>341</v>
       </c>
@@ -14508,7 +14469,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:15" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>346</v>
       </c>
@@ -14538,7 +14499,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:15" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>350</v>
       </c>
@@ -14571,7 +14532,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:15" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>275</v>
       </c>
@@ -14604,7 +14565,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:15" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>357</v>
       </c>
@@ -14634,7 +14595,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:15" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>361</v>
       </c>
@@ -14667,7 +14628,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:15" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>365</v>
       </c>
@@ -14697,7 +14658,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:15" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>61</v>
       </c>
@@ -14716,9 +14677,7 @@
       <c r="F192" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H192" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="H192" s="2"/>
       <c r="I192" s="2" t="s">
         <v>27</v>
       </c>
@@ -14730,7 +14689,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:16" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>67</v>
       </c>
@@ -14749,9 +14708,7 @@
       <c r="F193" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H193" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
         <v>27</v>
       </c>
@@ -14763,7 +14720,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:16" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>70</v>
       </c>
@@ -14782,9 +14739,7 @@
       <c r="F194" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H194" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="H194" s="2"/>
       <c r="I194" s="2" t="s">
         <v>27</v>
       </c>
@@ -14796,7 +14751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:16" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>75</v>
       </c>
@@ -14815,9 +14770,7 @@
       <c r="F195" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H195" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H195" s="2"/>
       <c r="I195" s="2" t="s">
         <v>27</v>
       </c>
@@ -14829,7 +14782,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:16" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>79</v>
       </c>
@@ -14848,9 +14801,7 @@
       <c r="F196" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H196" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H196" s="2"/>
       <c r="I196" s="2" t="s">
         <v>27</v>
       </c>
@@ -14865,7 +14816,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:16" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>86</v>
       </c>
@@ -14884,9 +14835,7 @@
       <c r="F197" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H197" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H197" s="2"/>
       <c r="I197" s="2" t="s">
         <v>27</v>
       </c>
@@ -14901,7 +14850,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:16" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>90</v>
       </c>
@@ -14920,9 +14869,7 @@
       <c r="F198" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="H198" s="2"/>
       <c r="I198" s="2" t="s">
         <v>27</v>
       </c>
@@ -14937,7 +14884,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:16" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>83</v>
       </c>
@@ -14956,9 +14903,7 @@
       <c r="F199" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H199" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H199" s="2"/>
       <c r="I199" s="2" t="s">
         <v>27</v>
       </c>
@@ -14973,7 +14918,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:16" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>100</v>
       </c>
@@ -14992,9 +14937,7 @@
       <c r="F200" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H200" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="H200" s="2"/>
       <c r="I200" s="2" t="s">
         <v>27</v>
       </c>
@@ -15009,7 +14952,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:16" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>104</v>
       </c>
@@ -15042,7 +14985,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:16" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>77</v>
       </c>
@@ -15075,7 +15018,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:16" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>65</v>
       </c>
@@ -15094,9 +15037,7 @@
       <c r="F203" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H203" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H203" s="2"/>
       <c r="I203" s="2" t="s">
         <v>27</v>
       </c>
@@ -15108,7 +15049,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:16" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>115</v>
       </c>
@@ -15127,9 +15068,7 @@
       <c r="F204" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H204" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="H204" s="2"/>
       <c r="I204" s="2" t="s">
         <v>27</v>
       </c>
@@ -15144,7 +15083,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:16" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>119</v>
       </c>
@@ -15163,9 +15102,7 @@
       <c r="F205" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H205" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="H205" s="2"/>
       <c r="I205" s="2" t="s">
         <v>27</v>
       </c>
@@ -15180,7 +15117,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:16" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>123</v>
       </c>
@@ -15213,7 +15150,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:16" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>128</v>
       </c>
@@ -15232,9 +15169,7 @@
       <c r="F207" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H207" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="H207" s="2"/>
       <c r="I207" s="2" t="s">
         <v>27</v>
       </c>
@@ -15249,7 +15184,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:16" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>132</v>
       </c>
@@ -15268,9 +15203,7 @@
       <c r="F208" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H208" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H208" s="2"/>
       <c r="I208" s="2" t="s">
         <v>27</v>
       </c>
@@ -15285,7 +15218,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:15" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>136</v>
       </c>
@@ -15315,7 +15248,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:15" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>141</v>
       </c>
@@ -15348,7 +15281,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:15" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -15381,7 +15314,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:15" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>149</v>
       </c>
@@ -15414,7 +15347,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:15" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>154</v>
       </c>
@@ -15433,9 +15366,7 @@
       <c r="F213" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H213" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="H213" s="2"/>
       <c r="I213" s="2" t="s">
         <v>27</v>
       </c>
@@ -15447,7 +15378,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:15" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>158</v>
       </c>
@@ -15466,9 +15397,7 @@
       <c r="F214" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H214" s="2"/>
       <c r="I214" s="2" t="s">
         <v>27</v>
       </c>
@@ -15480,7 +15409,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:15" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>162</v>
       </c>
@@ -15499,9 +15428,7 @@
       <c r="F215" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H215" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="H215" s="2"/>
       <c r="I215" s="2" t="s">
         <v>27</v>
       </c>
@@ -15513,7 +15440,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:15" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>168</v>
       </c>
@@ -15543,7 +15470,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:15" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>173</v>
       </c>
@@ -15562,9 +15489,7 @@
       <c r="F217" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H217" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="H217" s="2"/>
       <c r="I217" s="2" t="s">
         <v>27</v>
       </c>
@@ -15579,13 +15504,13 @@
         <v>619</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -16363,46 +16288,42 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$S$217"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:S217" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
-    <col customWidth="1" min="2" max="3" width="18.71"/>
-    <col customWidth="1" min="4" max="4" width="20.29"/>
-    <col customWidth="1" min="5" max="5" width="23.43"/>
-    <col customWidth="1" min="6" max="6" width="11.71"/>
-    <col customWidth="1" min="7" max="7" width="10.14"/>
-    <col customWidth="1" min="8" max="8" width="15.57"/>
-    <col customWidth="1" min="9" max="9" width="11.0"/>
-    <col customWidth="1" min="10" max="10" width="11.71"/>
-    <col customWidth="1" min="11" max="11" width="16.29"/>
-    <col customWidth="1" min="12" max="13" width="12.86"/>
-    <col customWidth="1" min="14" max="14" width="11.71"/>
-    <col customWidth="1" min="15" max="15" width="13.71"/>
-    <col customWidth="1" min="16" max="16" width="15.29"/>
-    <col customWidth="1" min="17" max="18" width="15.57"/>
-    <col customWidth="1" min="19" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -16458,7 +16379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -16493,7 +16414,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -16528,7 +16449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -16563,7 +16484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -16598,7 +16519,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -16633,7 +16554,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -16668,7 +16589,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -16703,7 +16624,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -16738,7 +16659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -16773,7 +16694,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -16808,7 +16729,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -16843,7 +16764,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -16878,7 +16799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
@@ -16913,7 +16834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -16948,7 +16869,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
@@ -17964,41 +17885,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$R$16"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:R16" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
-    <col customWidth="1" min="2" max="2" width="26.14"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="9.71"/>
-    <col customWidth="1" min="6" max="6" width="26.14"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
-    <col customWidth="1" min="8" max="8" width="26.14"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -18024,7 +17941,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>428</v>
       </c>
@@ -18044,7 +17961,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>428</v>
       </c>
@@ -18064,7 +17981,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>428</v>
       </c>
@@ -18084,7 +18001,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>270</v>
       </c>
@@ -18110,7 +18027,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>344</v>
       </c>
@@ -18130,7 +18047,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>344</v>
       </c>
@@ -18150,7 +18067,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -18170,7 +18087,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>344</v>
       </c>
@@ -18190,7 +18107,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -18210,7 +18127,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -18230,7 +18147,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
@@ -18250,7 +18167,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -18270,7 +18187,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>108</v>
       </c>
@@ -18290,7 +18207,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>108</v>
       </c>
@@ -18310,7 +18227,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>501</v>
       </c>
@@ -18333,7 +18250,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -18353,7 +18270,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
@@ -18373,7 +18290,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -18393,7 +18310,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
@@ -18413,7 +18330,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -18433,7 +18350,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -18453,7 +18370,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -18473,7 +18390,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>137</v>
       </c>
@@ -18493,7 +18410,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>137</v>
       </c>
@@ -18513,7 +18430,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -18533,7 +18450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -18553,7 +18470,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
@@ -18573,7 +18490,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>137</v>
       </c>
@@ -18593,7 +18510,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>137</v>
       </c>
@@ -18613,7 +18530,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>137</v>
       </c>
@@ -18633,7 +18550,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>137</v>
       </c>
@@ -18653,7 +18570,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>137</v>
       </c>
@@ -18673,7 +18590,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>137</v>
       </c>
@@ -18693,7 +18610,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
@@ -18713,7 +18630,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
@@ -18733,7 +18650,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
@@ -18753,7 +18670,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>137</v>
       </c>
@@ -18773,7 +18690,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -18793,7 +18710,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -18813,7 +18730,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -18833,7 +18750,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
@@ -18853,7 +18770,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -18873,7 +18790,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -18893,7 +18810,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -18913,7 +18830,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -18933,7 +18850,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -18953,7 +18870,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -18973,7 +18890,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -18993,7 +18910,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -19013,7 +18930,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -19033,7 +18950,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -19053,7 +18970,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -19073,7 +18990,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -19093,7 +19010,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>226</v>
       </c>
@@ -19113,7 +19030,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>528</v>
       </c>
@@ -19133,7 +19050,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>528</v>
       </c>
@@ -19153,7 +19070,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>528</v>
       </c>
@@ -19173,7 +19090,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>605</v>
       </c>
@@ -19193,7 +19110,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>605</v>
       </c>
@@ -19213,7 +19130,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>566</v>
       </c>
@@ -19233,7 +19150,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>566</v>
       </c>
@@ -19253,7 +19170,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>566</v>
       </c>
@@ -19273,7 +19190,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>566</v>
       </c>
@@ -19293,7 +19210,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>566</v>
       </c>
@@ -19313,7 +19230,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>566</v>
       </c>
@@ -19333,7 +19250,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>566</v>
       </c>
@@ -19353,7 +19270,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>566</v>
       </c>
@@ -19373,7 +19290,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>566</v>
       </c>
@@ -19393,7 +19310,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>573</v>
       </c>
@@ -19413,7 +19330,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>573</v>
       </c>
@@ -19433,7 +19350,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>573</v>
       </c>
@@ -19453,7 +19370,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>573</v>
       </c>
@@ -19473,7 +19390,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>573</v>
       </c>
@@ -19493,7 +19410,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>573</v>
       </c>
@@ -19513,7 +19430,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>573</v>
       </c>
@@ -19533,7 +19450,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>573</v>
       </c>
@@ -19553,7 +19470,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>573</v>
       </c>
@@ -19573,7 +19490,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>573</v>
       </c>
@@ -19593,7 +19510,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>202</v>
       </c>
@@ -19619,7 +19536,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>202</v>
       </c>
@@ -19645,7 +19562,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>547</v>
       </c>
@@ -19665,7 +19582,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>547</v>
       </c>
@@ -19685,7 +19602,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>506</v>
       </c>
@@ -19711,7 +19628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>506</v>
       </c>
@@ -19737,7 +19654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>506</v>
       </c>
@@ -19763,7 +19680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>506</v>
       </c>
@@ -19789,7 +19706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>468</v>
       </c>
@@ -19809,7 +19726,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>468</v>
       </c>
@@ -19829,7 +19746,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>468</v>
       </c>
@@ -19849,7 +19766,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>468</v>
       </c>
@@ -19869,7 +19786,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>457</v>
       </c>
@@ -19889,7 +19806,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>457</v>
       </c>
@@ -19909,7 +19826,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>457</v>
       </c>
@@ -19929,7 +19846,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>353</v>
       </c>
@@ -19955,7 +19872,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>353</v>
       </c>
@@ -19981,7 +19898,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>353</v>
       </c>
@@ -20007,7 +19924,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>422</v>
       </c>
@@ -20027,7 +19944,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>422</v>
       </c>
@@ -20047,7 +19964,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>422</v>
       </c>
@@ -20067,7 +19984,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>422</v>
       </c>
@@ -20087,7 +20004,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>422</v>
       </c>
@@ -20107,7 +20024,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>422</v>
       </c>
@@ -20127,7 +20044,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>422</v>
       </c>
@@ -20147,7 +20064,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>422</v>
       </c>
@@ -20167,7 +20084,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>422</v>
       </c>
@@ -20187,7 +20104,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>422</v>
       </c>
@@ -20207,7 +20124,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>422</v>
       </c>
@@ -20227,7 +20144,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>422</v>
       </c>
@@ -20247,7 +20164,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>422</v>
       </c>
@@ -20267,7 +20184,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>422</v>
       </c>
@@ -20287,7 +20204,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>422</v>
       </c>
@@ -20307,7 +20224,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>422</v>
       </c>
@@ -20327,7 +20244,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>422</v>
       </c>
@@ -20347,7 +20264,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>422</v>
       </c>
@@ -20367,7 +20284,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>422</v>
       </c>
@@ -20387,7 +20304,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>422</v>
       </c>
@@ -20407,7 +20324,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>422</v>
       </c>
@@ -20427,7 +20344,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>422</v>
       </c>
@@ -20447,7 +20364,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>422</v>
       </c>
@@ -20467,7 +20384,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>422</v>
       </c>
@@ -20487,7 +20404,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
@@ -20507,7 +20424,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>422</v>
       </c>
@@ -20527,7 +20444,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>422</v>
       </c>
@@ -20547,7 +20464,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>422</v>
       </c>
@@ -20567,7 +20484,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>422</v>
       </c>
@@ -20587,7 +20504,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>422</v>
       </c>
@@ -20607,7 +20524,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>422</v>
       </c>
@@ -20627,7 +20544,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>422</v>
       </c>
@@ -20647,7 +20564,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>422</v>
       </c>
@@ -20667,7 +20584,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>422</v>
       </c>
@@ -20687,7 +20604,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>422</v>
       </c>
@@ -20707,7 +20624,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>422</v>
       </c>
@@ -20727,7 +20644,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>171</v>
       </c>
@@ -20747,7 +20664,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>171</v>
       </c>
@@ -20767,7 +20684,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>171</v>
       </c>
@@ -20787,7 +20704,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>171</v>
       </c>
@@ -20807,7 +20724,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>171</v>
       </c>
@@ -20827,7 +20744,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>171</v>
       </c>
@@ -20847,7 +20764,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>171</v>
       </c>
@@ -20867,7 +20784,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>171</v>
       </c>
@@ -20887,7 +20804,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>171</v>
       </c>
@@ -20907,7 +20824,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>171</v>
       </c>
@@ -20927,7 +20844,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>171</v>
       </c>
@@ -20947,7 +20864,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>171</v>
       </c>
@@ -20967,7 +20884,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>171</v>
       </c>
@@ -20987,7 +20904,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>171</v>
       </c>
@@ -21007,7 +20924,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>171</v>
       </c>
@@ -21027,7 +20944,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>596</v>
       </c>
@@ -21047,7 +20964,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>424</v>
       </c>
@@ -21067,7 +20984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>424</v>
       </c>
@@ -21087,7 +21004,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>424</v>
       </c>
@@ -21107,7 +21024,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>424</v>
       </c>
@@ -21127,7 +21044,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>424</v>
       </c>
@@ -21147,7 +21064,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>424</v>
       </c>
@@ -21167,7 +21084,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>424</v>
       </c>
@@ -21187,7 +21104,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>424</v>
       </c>
@@ -21207,7 +21124,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>424</v>
       </c>
@@ -21227,7 +21144,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>424</v>
       </c>
@@ -21247,7 +21164,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>424</v>
       </c>
@@ -21267,7 +21184,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>424</v>
       </c>
@@ -21287,7 +21204,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>424</v>
       </c>
@@ -21307,7 +21224,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>424</v>
       </c>
@@ -21327,7 +21244,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>424</v>
       </c>
@@ -21347,7 +21264,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>424</v>
       </c>
@@ -21367,7 +21284,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>424</v>
       </c>
@@ -21387,7 +21304,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>424</v>
       </c>
@@ -21407,7 +21324,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>424</v>
       </c>
@@ -21427,7 +21344,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>424</v>
       </c>
@@ -21447,7 +21364,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>424</v>
       </c>
@@ -21467,7 +21384,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>424</v>
       </c>
@@ -21487,7 +21404,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>424</v>
       </c>
@@ -21507,7 +21424,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>424</v>
       </c>
@@ -21527,7 +21444,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>424</v>
       </c>
@@ -21547,7 +21464,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>424</v>
       </c>
@@ -21567,7 +21484,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>424</v>
       </c>
@@ -21587,7 +21504,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>424</v>
       </c>
@@ -21607,7 +21524,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>424</v>
       </c>
@@ -21627,7 +21544,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>424</v>
       </c>
@@ -21647,7 +21564,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>424</v>
       </c>
@@ -21667,7 +21584,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>424</v>
       </c>
@@ -21687,7 +21604,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>424</v>
       </c>
@@ -21707,7 +21624,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>424</v>
       </c>
@@ -21727,7 +21644,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>424</v>
       </c>
@@ -21747,7 +21664,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>424</v>
       </c>
@@ -21767,7 +21684,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>176</v>
       </c>
@@ -21787,7 +21704,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>176</v>
       </c>
@@ -21807,7 +21724,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>176</v>
       </c>
@@ -21827,7 +21744,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>176</v>
       </c>
@@ -21847,7 +21764,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>176</v>
       </c>
@@ -21867,7 +21784,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>176</v>
       </c>
@@ -21887,7 +21804,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>176</v>
       </c>
@@ -21907,7 +21824,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>176</v>
       </c>
@@ -21927,7 +21844,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>176</v>
       </c>
@@ -21947,7 +21864,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>176</v>
       </c>
@@ -21967,7 +21884,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>176</v>
       </c>
@@ -21987,7 +21904,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>176</v>
       </c>
@@ -22007,7 +21924,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>176</v>
       </c>
@@ -22027,7 +21944,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>176</v>
       </c>
@@ -22047,7 +21964,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>176</v>
       </c>
@@ -22067,7 +21984,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>420</v>
       </c>
@@ -22087,7 +22004,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>420</v>
       </c>
@@ -22107,7 +22024,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>420</v>
       </c>
@@ -22127,7 +22044,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>420</v>
       </c>
@@ -22147,7 +22064,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>420</v>
       </c>
@@ -22167,7 +22084,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>420</v>
       </c>
@@ -22187,7 +22104,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>420</v>
       </c>
@@ -22207,7 +22124,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>420</v>
       </c>
@@ -22227,7 +22144,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:8" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>420</v>
       </c>
@@ -22247,7 +22164,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:8" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>420</v>
       </c>
@@ -22267,7 +22184,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:8" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>420</v>
       </c>
@@ -22287,7 +22204,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>420</v>
       </c>
@@ -22307,7 +22224,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:8" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>420</v>
       </c>
@@ -22327,7 +22244,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>420</v>
       </c>
@@ -22347,7 +22264,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:8" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>420</v>
       </c>
@@ -22367,7 +22284,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>420</v>
       </c>
@@ -22387,7 +22304,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>420</v>
       </c>
@@ -22407,7 +22324,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>420</v>
       </c>
@@ -22427,7 +22344,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:8" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>420</v>
       </c>
@@ -22447,7 +22364,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>420</v>
       </c>
@@ -22467,7 +22384,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>420</v>
       </c>
@@ -22487,7 +22404,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>420</v>
       </c>
@@ -22507,7 +22424,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>420</v>
       </c>
@@ -22527,7 +22444,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>420</v>
       </c>
@@ -22547,7 +22464,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>420</v>
       </c>
@@ -22567,7 +22484,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>420</v>
       </c>
@@ -22587,7 +22504,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>420</v>
       </c>
@@ -22607,7 +22524,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>420</v>
       </c>
@@ -22627,7 +22544,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>420</v>
       </c>
@@ -22647,7 +22564,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>420</v>
       </c>
@@ -22667,7 +22584,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>420</v>
       </c>
@@ -22687,7 +22604,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>420</v>
       </c>
@@ -22707,7 +22624,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>420</v>
       </c>
@@ -22727,7 +22644,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>420</v>
       </c>
@@ -22747,7 +22664,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>420</v>
       </c>
@@ -22767,7 +22684,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>420</v>
       </c>
@@ -22787,7 +22704,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:8" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>166</v>
       </c>
@@ -22807,7 +22724,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:8" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>166</v>
       </c>
@@ -22827,7 +22744,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:8" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>166</v>
       </c>
@@ -22847,7 +22764,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:8" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>166</v>
       </c>
@@ -22867,7 +22784,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>166</v>
       </c>
@@ -22887,7 +22804,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>166</v>
       </c>
@@ -22907,7 +22824,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>166</v>
       </c>
@@ -22927,7 +22844,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:8" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>166</v>
       </c>
@@ -22947,7 +22864,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:8" ht="15.75" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>166</v>
       </c>
@@ -22967,7 +22884,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:8" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>166</v>
       </c>
@@ -22987,7 +22904,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:8" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>166</v>
       </c>
@@ -23007,7 +22924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:8" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>166</v>
       </c>
@@ -23027,7 +22944,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:8" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>166</v>
       </c>
@@ -23047,7 +22964,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:8" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>166</v>
       </c>
@@ -23067,7 +22984,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:8" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>166</v>
       </c>
@@ -23087,7 +23004,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:8" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>594</v>
       </c>
@@ -23107,7 +23024,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:8" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>111</v>
       </c>
@@ -23133,7 +23050,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:8" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>111</v>
       </c>
@@ -23159,7 +23076,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:8" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>111</v>
       </c>
@@ -23185,7 +23102,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:8" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>111</v>
       </c>
@@ -23211,7 +23128,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:8" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>111</v>
       </c>
@@ -23237,7 +23154,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:8" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>116</v>
       </c>
@@ -23257,7 +23174,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:8" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>116</v>
       </c>
@@ -23277,7 +23194,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:8" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>116</v>
       </c>
@@ -23297,7 +23214,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:8" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>116</v>
       </c>
@@ -23317,7 +23234,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:8" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>116</v>
       </c>
@@ -23337,7 +23254,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:8" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>120</v>
       </c>
@@ -23360,7 +23277,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:8" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>120</v>
       </c>
@@ -23383,7 +23300,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:8" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>146</v>
       </c>
@@ -23403,7 +23320,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:8" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>146</v>
       </c>
@@ -23423,7 +23340,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:8" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>146</v>
       </c>
@@ -23443,7 +23360,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:8" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>146</v>
       </c>
@@ -23463,7 +23380,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:8" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>146</v>
       </c>
@@ -23483,7 +23400,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:8" ht="15.75" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>146</v>
       </c>
@@ -23503,7 +23420,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:8" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>146</v>
       </c>
@@ -23523,7 +23440,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:8" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>146</v>
       </c>
@@ -23543,7 +23460,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:8" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>146</v>
       </c>
@@ -23563,7 +23480,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:8" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>146</v>
       </c>
@@ -23583,7 +23500,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:8" ht="15.75" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>146</v>
       </c>
@@ -23603,7 +23520,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:8" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>146</v>
       </c>
@@ -23623,7 +23540,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:8" ht="15.75" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>146</v>
       </c>
@@ -23643,7 +23560,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:8" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>146</v>
       </c>
@@ -23663,7 +23580,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:8" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>146</v>
       </c>
@@ -23683,7 +23600,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:8" ht="15.75" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>146</v>
       </c>
@@ -23703,7 +23620,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:8" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>146</v>
       </c>
@@ -23723,7 +23640,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:8" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>146</v>
       </c>
@@ -23743,7 +23660,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:8" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>146</v>
       </c>
@@ -23763,7 +23680,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:8" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>146</v>
       </c>
@@ -23783,7 +23700,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:8" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>146</v>
       </c>
@@ -23803,7 +23720,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:8" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>146</v>
       </c>
@@ -23823,7 +23740,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:8" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>146</v>
       </c>
@@ -23843,7 +23760,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:8" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>146</v>
       </c>
@@ -23863,7 +23780,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:8" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>146</v>
       </c>
@@ -23883,7 +23800,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:8" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>146</v>
       </c>
@@ -23903,7 +23820,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:8" ht="15.75" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>146</v>
       </c>
@@ -23923,7 +23840,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:8" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>146</v>
       </c>
@@ -23943,7 +23860,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:8" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>146</v>
       </c>
@@ -23963,7 +23880,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:8" ht="15.75" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>146</v>
       </c>
@@ -23983,7 +23900,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:8" ht="15.75" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>146</v>
       </c>
@@ -24003,7 +23920,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:8" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>146</v>
       </c>
@@ -24023,7 +23940,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:8" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>146</v>
       </c>
@@ -24043,7 +23960,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:8" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>146</v>
       </c>
@@ -24063,7 +23980,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:8" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>146</v>
       </c>
@@ -24083,7 +24000,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:8" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>146</v>
       </c>
@@ -24103,7 +24020,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:8" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>146</v>
       </c>
@@ -24123,7 +24040,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:8" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>150</v>
       </c>
@@ -24143,7 +24060,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:8" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>150</v>
       </c>
@@ -24163,7 +24080,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:8" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>150</v>
       </c>
@@ -24183,7 +24100,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:8" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>150</v>
       </c>
@@ -24203,7 +24120,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:8" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>150</v>
       </c>
@@ -24223,7 +24140,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:8" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
         <v>150</v>
       </c>
@@ -24243,7 +24160,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:8" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
         <v>150</v>
       </c>
@@ -24263,7 +24180,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:8" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
         <v>150</v>
       </c>
@@ -24283,7 +24200,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:8" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>150</v>
       </c>
@@ -24303,7 +24220,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:8" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>150</v>
       </c>
@@ -24323,7 +24240,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:8" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
         <v>150</v>
       </c>
@@ -24343,7 +24260,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:8" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
         <v>150</v>
       </c>
@@ -24363,7 +24280,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:8" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
         <v>150</v>
       </c>
@@ -24383,7 +24300,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:8" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
         <v>150</v>
       </c>
@@ -24403,7 +24320,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:8" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
         <v>150</v>
       </c>
@@ -24423,7 +24340,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:8" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
         <v>150</v>
       </c>
@@ -24443,7 +24360,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:8" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
         <v>150</v>
       </c>
@@ -24463,7 +24380,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:8" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
         <v>150</v>
       </c>
@@ -24483,7 +24400,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:8" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
         <v>150</v>
       </c>
@@ -24503,7 +24420,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:8" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
         <v>150</v>
       </c>
@@ -24523,7 +24440,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:8" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
         <v>150</v>
       </c>
@@ -24543,7 +24460,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:8" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
         <v>150</v>
       </c>
@@ -24563,7 +24480,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:8" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
         <v>150</v>
       </c>
@@ -24583,7 +24500,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:8" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
         <v>150</v>
       </c>
@@ -24603,7 +24520,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:8" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
         <v>150</v>
       </c>
@@ -24623,7 +24540,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:8" ht="15.75" customHeight="1">
       <c r="A327" s="2" t="s">
         <v>150</v>
       </c>
@@ -24643,7 +24560,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:8" ht="15.75" customHeight="1">
       <c r="A328" s="2" t="s">
         <v>150</v>
       </c>
@@ -24663,7 +24580,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:8" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
         <v>150</v>
       </c>
@@ -24683,7 +24600,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:8" ht="15.75" customHeight="1">
       <c r="A330" s="2" t="s">
         <v>150</v>
       </c>
@@ -24703,7 +24620,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:8" ht="15.75" customHeight="1">
       <c r="A331" s="2" t="s">
         <v>150</v>
       </c>
@@ -24723,7 +24640,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:8" ht="15.75" customHeight="1">
       <c r="A332" s="2" t="s">
         <v>150</v>
       </c>
@@ -24743,7 +24660,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:8" ht="15.75" customHeight="1">
       <c r="A333" s="2" t="s">
         <v>150</v>
       </c>
@@ -24763,7 +24680,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:8" ht="15.75" customHeight="1">
       <c r="A334" s="2" t="s">
         <v>150</v>
       </c>
@@ -24783,7 +24700,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:8" ht="15.75" customHeight="1">
       <c r="A335" s="2" t="s">
         <v>150</v>
       </c>
@@ -24803,7 +24720,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:8" ht="15.75" customHeight="1">
       <c r="A336" s="2" t="s">
         <v>150</v>
       </c>
@@ -24823,7 +24740,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:8" ht="15.75" customHeight="1">
       <c r="A337" s="2" t="s">
         <v>150</v>
       </c>
@@ -24843,7 +24760,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:8" ht="15.75" customHeight="1">
       <c r="A338" s="2" t="s">
         <v>150</v>
       </c>
@@ -24863,7 +24780,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:8" ht="15.75" customHeight="1">
       <c r="A339" s="2" t="s">
         <v>126</v>
       </c>
@@ -24889,7 +24806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:8" ht="15.75" customHeight="1">
       <c r="A340" s="2" t="s">
         <v>126</v>
       </c>
@@ -24915,18 +24832,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="341" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="342" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="343" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="344" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="345" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="346" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="347" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="348" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="349" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="350" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="351" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="352" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="353" ht="15.75" customHeight="1"/>
     <row r="354" ht="15.75" customHeight="1"/>
     <row r="355" ht="15.75" customHeight="1"/>
@@ -25576,36 +25493,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$H$340"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:H340" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.57"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
-    <col customWidth="1" min="3" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -25622,7 +25535,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>279</v>
       </c>
@@ -25639,7 +25552,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>953</v>
       </c>
@@ -26637,38 +26550,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$3"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.57"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
-    <col customWidth="1" min="3" max="3" width="11.71"/>
-    <col customWidth="1" min="4" max="4" width="46.86"/>
-    <col customWidth="1" min="5" max="6" width="18.71"/>
-    <col customWidth="1" min="7" max="7" width="19.57"/>
-    <col customWidth="1" min="8" max="8" width="11.71"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -26694,7 +26603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>161</v>
       </c>
@@ -26708,7 +26617,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
@@ -26722,7 +26631,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -26736,7 +26645,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -26750,7 +26659,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="2" t="s">
         <v>651</v>
       </c>
@@ -26764,7 +26673,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -26778,7 +26687,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -26792,7 +26701,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2" t="s">
         <v>185</v>
       </c>
@@ -26806,7 +26715,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>189</v>
       </c>
@@ -26820,7 +26729,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="2" t="s">
         <v>204</v>
       </c>
@@ -26834,7 +26743,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>193</v>
       </c>
@@ -26848,7 +26757,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>269</v>
       </c>
@@ -26862,7 +26771,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>272</v>
       </c>
@@ -26876,7 +26785,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -26890,7 +26799,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>305</v>
       </c>
@@ -26904,7 +26813,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>286</v>
       </c>
@@ -26918,7 +26827,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>298</v>
       </c>
@@ -26932,7 +26841,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>301</v>
       </c>
@@ -26946,7 +26855,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>292</v>
       </c>
@@ -26960,7 +26869,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>295</v>
       </c>
@@ -26974,7 +26883,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>280</v>
       </c>
@@ -26988,7 +26897,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>283</v>
       </c>
@@ -27002,7 +26911,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>263</v>
       </c>
@@ -27016,7 +26925,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>266</v>
       </c>
@@ -27030,7 +26939,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>354</v>
       </c>
@@ -27044,7 +26953,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>289</v>
       </c>
@@ -27058,7 +26967,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>345</v>
       </c>
@@ -27072,7 +26981,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>320</v>
       </c>
@@ -27086,7 +26995,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>323</v>
       </c>
@@ -27100,7 +27009,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>326</v>
       </c>
@@ -27114,7 +27023,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>329</v>
       </c>
@@ -27128,7 +27037,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>356</v>
       </c>
@@ -27142,7 +27051,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>317</v>
       </c>
@@ -27156,7 +27065,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>314</v>
       </c>
@@ -27170,7 +27079,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>332</v>
       </c>
@@ -27184,7 +27093,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
@@ -27198,7 +27107,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>308</v>
       </c>
@@ -27212,7 +27121,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>311</v>
       </c>
@@ -27226,7 +27135,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
@@ -27240,7 +27149,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>276</v>
       </c>
@@ -27254,7 +27163,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -27268,7 +27177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>242</v>
       </c>
@@ -27282,7 +27191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>243</v>
       </c>
@@ -27296,7 +27205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>392</v>
       </c>
@@ -27310,7 +27219,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>376</v>
       </c>
@@ -27324,7 +27233,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>380</v>
       </c>
@@ -27338,7 +27247,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>384</v>
       </c>
@@ -27352,7 +27261,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>364</v>
       </c>
@@ -27366,7 +27275,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>372</v>
       </c>
@@ -27380,7 +27289,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>368</v>
       </c>
@@ -27394,7 +27303,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>254</v>
       </c>
@@ -27408,7 +27317,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>257</v>
       </c>
@@ -27422,7 +27331,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>260</v>
       </c>
@@ -27436,7 +27345,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>388</v>
       </c>
@@ -27450,7 +27359,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>244</v>
       </c>
@@ -27464,7 +27373,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>245</v>
       </c>
@@ -27478,7 +27387,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>249</v>
       </c>
@@ -27492,7 +27401,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>246</v>
       </c>
@@ -27506,7 +27415,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>234</v>
       </c>
@@ -27520,7 +27429,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>233</v>
       </c>
@@ -27534,7 +27443,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>237</v>
       </c>
@@ -27548,7 +27457,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>240</v>
       </c>
@@ -27562,7 +27471,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>251</v>
       </c>
@@ -27576,7 +27485,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>360</v>
       </c>
@@ -27590,7 +27499,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>250</v>
       </c>
@@ -27604,7 +27513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -27618,7 +27527,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>435</v>
       </c>
@@ -27632,7 +27541,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>462</v>
       </c>
@@ -27646,7 +27555,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>417</v>
       </c>
@@ -27660,7 +27569,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>416</v>
       </c>
@@ -27674,7 +27583,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>465</v>
       </c>
@@ -27688,7 +27597,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>403</v>
       </c>
@@ -27702,7 +27611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>404</v>
       </c>
@@ -27716,7 +27625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>405</v>
       </c>
@@ -27730,7 +27639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>454</v>
       </c>
@@ -27744,7 +27653,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>451</v>
       </c>
@@ -27758,7 +27667,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>458</v>
       </c>
@@ -27772,7 +27681,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>430</v>
       </c>
@@ -27786,7 +27695,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>414</v>
       </c>
@@ -27800,7 +27709,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>415</v>
       </c>
@@ -27814,7 +27723,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>431</v>
       </c>
@@ -27828,7 +27737,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>461</v>
       </c>
@@ -27842,7 +27751,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>450</v>
       </c>
@@ -27856,7 +27765,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>447</v>
       </c>
@@ -27870,7 +27779,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>432</v>
       </c>
@@ -27884,7 +27793,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>409</v>
       </c>
@@ -27898,7 +27807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>412</v>
       </c>
@@ -27912,7 +27821,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>470</v>
       </c>
@@ -27926,7 +27835,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>467</v>
       </c>
@@ -27940,7 +27849,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>473</v>
       </c>
@@ -27954,7 +27863,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>421</v>
       </c>
@@ -27968,7 +27877,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>423</v>
       </c>
@@ -27982,7 +27891,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>425</v>
       </c>
@@ -27996,7 +27905,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>429</v>
       </c>
@@ -28010,7 +27919,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>444</v>
       </c>
@@ -28024,7 +27933,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>441</v>
       </c>
@@ -28038,7 +27947,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>406</v>
       </c>
@@ -28052,7 +27961,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>407</v>
       </c>
@@ -28066,7 +27975,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>413</v>
       </c>
@@ -28080,7 +27989,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>408</v>
       </c>
@@ -28094,7 +28003,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>393</v>
       </c>
@@ -28108,7 +28017,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>396</v>
       </c>
@@ -28122,7 +28031,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>399</v>
       </c>
@@ -28136,7 +28045,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>400</v>
       </c>
@@ -28150,7 +28059,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>402</v>
       </c>
@@ -28164,7 +28073,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>397</v>
       </c>
@@ -28178,7 +28087,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>398</v>
       </c>
@@ -28192,7 +28101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>401</v>
       </c>
@@ -28206,7 +28115,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>500</v>
       </c>
@@ -28220,7 +28129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
@@ -28234,7 +28143,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -28248,7 +28157,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>503</v>
       </c>
@@ -28262,7 +28171,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>479</v>
       </c>
@@ -28276,7 +28185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>496</v>
       </c>
@@ -28290,7 +28199,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>525</v>
       </c>
@@ -28304,7 +28213,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>529</v>
       </c>
@@ -28318,7 +28227,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>515</v>
       </c>
@@ -28332,7 +28241,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>135</v>
       </c>
@@ -28346,7 +28255,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>512</v>
       </c>
@@ -28360,7 +28269,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>499</v>
       </c>
@@ -28374,7 +28283,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>567</v>
       </c>
@@ -28388,7 +28297,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>574</v>
       </c>
@@ -28402,7 +28311,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>518</v>
       </c>
@@ -28416,7 +28325,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>541</v>
       </c>
@@ -28430,7 +28339,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:4" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>519</v>
       </c>
@@ -28444,7 +28353,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:4" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>522</v>
       </c>
@@ -28458,7 +28367,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:4" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>544</v>
       </c>
@@ -28472,7 +28381,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:4" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>548</v>
       </c>
@@ -28486,7 +28395,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:4" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>538</v>
       </c>
@@ -28500,7 +28409,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -28514,7 +28423,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:4" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>570</v>
       </c>
@@ -28528,7 +28437,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:4" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>508</v>
       </c>
@@ -28542,7 +28451,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>532</v>
       </c>
@@ -28556,7 +28465,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>127</v>
       </c>
@@ -28570,7 +28479,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>577</v>
       </c>
@@ -28584,7 +28493,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>504</v>
       </c>
@@ -28598,7 +28507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>118</v>
       </c>
@@ -28612,7 +28521,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>563</v>
       </c>
@@ -28626,7 +28535,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>557</v>
       </c>
@@ -28640,7 +28549,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:4" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>554</v>
       </c>
@@ -28654,7 +28563,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>509</v>
       </c>
@@ -28668,7 +28577,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>505</v>
       </c>
@@ -28682,7 +28591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:4" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>74</v>
       </c>
@@ -28696,7 +28605,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:4" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>477</v>
       </c>
@@ -28710,7 +28619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>474</v>
       </c>
@@ -28724,7 +28633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:4" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>476</v>
       </c>
@@ -28738,7 +28647,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:4" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>487</v>
       </c>
@@ -28752,7 +28661,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>490</v>
       </c>
@@ -28766,7 +28675,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:4" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>482</v>
       </c>
@@ -28780,7 +28689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:4" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>99</v>
       </c>
@@ -28794,7 +28703,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:4" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>493</v>
       </c>
@@ -28808,7 +28717,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>89</v>
       </c>
@@ -28822,7 +28731,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:4" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>85</v>
       </c>
@@ -28836,7 +28745,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:4" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>551</v>
       </c>
@@ -28850,7 +28759,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>560</v>
       </c>
@@ -28864,7 +28773,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:4" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>535</v>
       </c>
@@ -28878,7 +28787,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>602</v>
       </c>
@@ -28892,7 +28801,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>580</v>
       </c>
@@ -28906,7 +28815,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:4" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>581</v>
       </c>
@@ -28920,7 +28829,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>582</v>
       </c>
@@ -28934,7 +28843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:4" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>598</v>
       </c>
@@ -28948,7 +28857,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:4" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>606</v>
       </c>
@@ -28962,7 +28871,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:4" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>609</v>
       </c>
@@ -28976,7 +28885,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:4" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>595</v>
       </c>
@@ -28990,7 +28899,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>597</v>
       </c>
@@ -29004,7 +28913,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>583</v>
       </c>
@@ -29018,7 +28927,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>584</v>
       </c>
@@ -29032,7 +28941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
@@ -29046,7 +28955,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:4" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>585</v>
       </c>
@@ -29060,7 +28969,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:4" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>579</v>
       </c>
@@ -29074,7 +28983,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:4" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>612</v>
       </c>
@@ -29088,7 +28997,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>618</v>
       </c>
@@ -29102,7 +29011,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>615</v>
       </c>
@@ -29116,7 +29025,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:4" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>601</v>
       </c>
@@ -29130,7 +29039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:4" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>578</v>
       </c>
@@ -29144,7 +29053,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>592</v>
       </c>
@@ -29158,7 +29067,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:4" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>593</v>
       </c>
@@ -29172,7 +29081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>590</v>
       </c>
@@ -29186,7 +29095,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:4" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>587</v>
       </c>
@@ -29200,7 +29109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>591</v>
       </c>
@@ -29214,7 +29123,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>586</v>
       </c>
@@ -29228,16 +29137,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="183" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="184" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="185" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="186" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="187" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="188" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="189" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="190" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="191" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="192" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="193" ht="15.75" customHeight="1"/>
     <row r="194" ht="15.75" customHeight="1"/>
     <row r="195" ht="15.75" customHeight="1"/>
@@ -30047,34 +29956,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$H$182"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:H182" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
-    <col customWidth="1" min="2" max="2" width="62.43"/>
-    <col customWidth="1" min="3" max="4" width="19.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -30088,7 +29993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>224</v>
       </c>
@@ -30096,7 +30001,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -30104,7 +30009,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>208</v>
       </c>
@@ -30112,7 +30017,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>212</v>
       </c>
@@ -30120,7 +30025,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>216</v>
       </c>
@@ -30128,7 +30033,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>228</v>
       </c>
@@ -30136,7 +30041,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
@@ -30144,7 +30049,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>177</v>
       </c>
@@ -31133,34 +31038,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$D$9"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:D9" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
-    <col customWidth="1" min="2" max="2" width="62.43"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>652</v>
       </c>
@@ -31171,7 +31072,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1274</v>
       </c>
@@ -32163,10 +32064,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$2"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>